--- a/tablaQA.xlsx
+++ b/tablaQA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CA702A-202A-4218-9CD5-5EC7CDF62DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45989E25-8747-475B-B75D-70C1BFC3A2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Hoja1" sheetId="4" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intenciones!$A$1:$O$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intenciones!$A$1:$O$102</definedName>
   </definedNames>
   <calcPr calcId="150001"/>
   <extLst>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="395">
   <si>
     <t>Nº</t>
   </si>
@@ -1181,12 +1181,6 @@
   </si>
   <si>
     <t>Lamento no poder ayudarte. Soy un robot muy joven y sigo en entrenamiento.\nRecuerda que puedes llamar a nuestra &lt;br&gt;- [**Mesa de Ayuda**](http://www.sii.cl/ayudas/asistencia/3042-mesa_ayuda-3044.html) o contactarnos a través de la &lt;br&gt;- [página web](http://www.sii.cl/ayudas/asistencia/3042-3045.html), [Facebook](https://www.facebook.com/impuestosinternoschile/) o [Twitter](https://twitter.com/SII_Chile).</t>
-  </si>
-  <si>
-    <t>General - Quien es el director</t>
-  </si>
-  <si>
-    <t>¿Quién es el Director del Servicio de Impuestos Internos?, ¿Quién es Fernando Barraza?</t>
   </si>
   <si>
     <r>
@@ -1327,9 +1321,6 @@
 http://www.sii.cl/ayudas/apps/eboleta/index.html</t>
   </si>
   <si>
-    <t>Fernando Barraza es el Director del Servicio de Impuestos Internos.</t>
-  </si>
-  <si>
     <t>Los **PPM Voluntarios** deben ser declarados en el **código 67** del F50.\n\nIngresa al F50 a través del siguiente [link](https://www4.sii.cl/rfiInternet/declarar/index.html#rfiSelFormularioPeriodo) o siguiendo la ruta: **Servicios Online / Impuestos Mensuales / Declaración Mensual (F50)**.</t>
   </si>
   <si>
@@ -1343,37 +1334,6 @@
   </si>
   <si>
     <t>Para la **declaración de PPM Obligatorios**:\n &lt;br&gt;1) Los **trabajadores independientes** que prestan servicios a:&lt;br&gt; a) ***Personas naturales***: es el mismo prestador del servicio quien declara y paga su PPM de Segunda Categoría, en el **código 152** del F29.&lt;br&gt;b) ***Empresas***: como la empresa es quien retiene el 10%, es ésta quien declara y paga el total de los impuestos retenidos en un mes,  en el **código 151** del F29.\n\n &lt;br&gt;  2) Las **empresas** deben declarar y pagar el PPM en el **código 62** del F29.&lt;br&gt;&lt;br&gt;Ingresa al F29 a través del siguiente [link](https://www4.sii.cl/propuestaf29ui/index.html#/default) o siguiendo la ruta: **Servicios Online / Impuestos Mensuales / Declaración Mensual (F29)**.</t>
-  </si>
-  <si>
-    <t>ES VERDAD LO QUE COMENTAN QUE YA NO SERA NECESARIO UN CONTADOR?</t>
-  </si>
-  <si>
-    <t>Necesidad de contador</t>
-  </si>
-  <si>
-    <t>Como Servicio, nuestro compromiso es facilitar tu aporte al desarrollo del país. Los **contadores** son un importante apoyo en esta tarea, y cada contribuyente puede optar por contar con su ayuda para cumplir con sus responsabilidades tributarias.</t>
-  </si>
-  <si>
-    <t>¿SI SE FACTURA UNA VENTA CON VOUCHER TRANSBANK CUAL DTE SE DECLARA?</t>
-  </si>
-  <si>
-    <t>Buenas tardes, ¿Cómo informo las boletas de pago electrónico con tarjeta debito o crédito con el nuevo cambio de resolución numero 13?</t>
-  </si>
-  <si>
-    <t>Recuerda que el voucher transbank sólo puede reemplazar la **boleta de ventas y servicios**NO** las facturas.</t>
-  </si>
-  <si>
-    <t>IVA - voucher transbank reemplaza SOLO boletas</t>
-  </si>
-  <si>
-    <t>IVA - declaracion boletas electronicas credito y debito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para el registro en el F29 de las **transacciones pagadas electrónicamente** (tarjetas de crédito o débito), debes considerar:&lt;br&gt;- El número de recibos o comprobantes emitidos por estas transacciones, sólo deberán registrarse en el código N° 758, de la línea 11.&lt;br&gt;- El débito generado en recibos o comprobantes emitidos por estas transacciones, sólo deberán registrarse en el código N° 759, de la línea 11. \n\nPara mayor información ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/catastro/arbol_documentos_tributarios_1132.htm), o siguiendo la ruta: **Ayuda / Preguntas Frecuentes / Impuestos Mensuales (IVA) / Documentos Tributarios / Boletas / Comprobante de pago electrónico**.
-</t>
-  </si>
-  <si>
-    <t>http://www.sii.cl/preguntas_frecuentes/catastro/arbol_documentos_tributarios_1132.htm</t>
   </si>
   <si>
     <t>Para presentar el **Formulario 29 de Declaración Mensual por Internet**, puedes hacerlo a través de:&lt;br&gt; 1. **Formulario Electrónico**.&lt;br&gt;2. **Archivo con software** (upload): aplica para contribuyentes que poseen software de mercado que genera archivos con las declaraciones del Formulario 29, que pueden ser subidos electrónicamente al sitio web del SII.\n\nPara realizar tu declaración, ingresa [aquí](http://www.sii.cl/servicios_online/1042-.html), o bien, siguiendo la ruta: **Servicios Online/Impuestos Mensuales/Declaración mensual (F29)**.\n\nRecuerda que cuando presiones el botón "**enviar declaración**", el sistema te enviará a una pantalla indicando las opciones de pago (si corresponde).&lt;br&gt;&lt;br&gt;Para revisar **instrucciones de llenado** ingresa al siguiente [link](http://www.sii.cl/como_se_hace_para/declarar_imp_mensuales/Declarar_Iva.pdf).</t>
@@ -1421,468 +1381,6 @@
     <t>Edición semana 22/10/18</t>
   </si>
   <si>
-    <t>declarar din
-como declaro una din?</t>
-  </si>
-  <si>
-    <r>
-      <t>El</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> **</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IVA de las importaciones**</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">se registra en el Registro de Compra y Ventas (RCV) con la Declaración de Ingreso emitida por el Servicio Nacional de Aduanas (DIN).\n\nDebes ingresarla manualmente en el Registro de Compras y Ventas (RCV), opción "**agregar documento no electrónico recibido**", </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>**código 914**</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. El **</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>monto**</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> debe estar </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>**en pesos**</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Siguiendo estos pasos, la DIN se verá reflejada en tu propuesta de F29.&lt;br&gt;&lt;br&gt;Para mayor información, ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/catastro/001_012_7008.htm).</t>
-    </r>
-  </si>
-  <si>
-    <t>rcv
-que es el rcv
-¿Qué es el registro de compras y ventas?</t>
-  </si>
-  <si>
-    <t>El **Registro de Compras y Ventas (RCV)** es un sistema que está compuesto por 2 registros, un Registro de Compras (RC) y otro Registro de Ventas (RV). Su finalidad es **respaldar las operaciones afectas, exentas y no afectas a IVA** efectuadas por el contribuyente, permitiendo controlar el Impuesto al Valor Agregado (IVA).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**No** existe un plazo determinado para **rectificar** tu declaración de IVA, así como tampoco un número máximo de veces que puedes hacerlo. \n\nDebes considerar que se podrían aplicar reajustes, intereses y multas por las diferencias o impuestos no declarados (por ejemplo, un mayor PPM).&lt;br&gt;&lt;br&gt;Para mayor información ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_1726.htm).
-</t>
-  </si>
-  <si>
-    <t>Para saber **cómo deben determinar el impuesto al valor agregado (IVA)** las empresas de cualquier tipo, te invito a revisar el siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_2364.htm).</t>
-  </si>
-  <si>
-    <t>porqué no tengo propuesta de declaración F29?</t>
-  </si>
-  <si>
-    <t>Si **no tienes propuesta de F29**, puede deberse a los siguientes motivos:&lt;br&gt;1) No existe información en tu Registro de Compras y Ventas.&lt;br&gt;2) Estás catalogado como contribuyente con régimen de renta presunta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las **facturas de exportaciones** deben ser ingresadas en el **Registro de Compras y Ventas (RCV)** y declaradas manualmente en el F29 en los **códigos [585] y [20]**, según corresponda.
-</t>
-  </si>
-  <si>
-    <t>SI UNA FACTURA SE DEJA EN NO INCLUIR POR ERROR SE PUEDE DECLARAR EN EL PERIODO SIGUIENTE</t>
-  </si>
-  <si>
-    <r>
-      <t>Si por error dejas una factura como **</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">no incluir** </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>en el periodo correspondiente</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>**estarías declarando**</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>que dicha factura **no** debe utilizarse para el cálculo de tus créditos fiscales.\nPara corregir esta situación, debes **rectificar tu F29 incluyéndola**, considerando que si implica un aumento en el remanente o disminución de pago deberás realizarlo en la **unidad correspondiente al domicilio**.\n\nRecuerda que los documentos electrónicos **no** pueden agregarse ni cambiarse de periodo en el RCV.</t>
-    </r>
-  </si>
-  <si>
-    <t>Si tengo inconvenientes para cancelar mi declaración del F. 29, éste se bloquea para intentar nuevamente en el mismo momento?
-el pago PEL no tuvo éxito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si intentaste pagar el IVA (F29) pero **el pago quedó inconcluso**, te recomiendo **verificar con tu Banco** que no se haya efectuado el cargo. Si el cargo no se ha realizado, debes volver a intentar realizar el pago.\n\nRecuerda que **sólo cuando se concrete el pago**, la declaración se habrá ejecutado y tendrá validez.
-</t>
-  </si>
-  <si>
-    <t>SACAR IVA USO COMUN</t>
-  </si>
-  <si>
-    <r>
-      <t>La clasificación de</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> **</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IVA uso común**</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">se utiliza para identificar aquellas compras que al momento de realizarse no es posible identificar si se destinarán a ventas afectas o exentas de IVA, a las que se les deberán aplicar un **factor de proporcionalidad**, el cual se calcula de acuerdo a la relación de las ventas afectas sobre el total.
-</t>
-    </r>
-  </si>
-  <si>
-    <t>codigo 520 Formulario 29
-codigo 520</t>
-  </si>
-  <si>
-    <t>Las **facturas recibidas del giro** y **facturas de compras emitidas** se deben declarar en el **código 520** del F29.</t>
-  </si>
-  <si>
-    <r>
-      <t>Las **</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>facturas electrónicas**</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (aceptadas por el SII) se registran **automaticamente** en el **Registro de Compras y Ventas (RCV)**. Considera que:&lt;br&gt;- Las **</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>facturas de venta**</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, quedan registradas en el periodo tributario de emisión de la misma.&lt;br&gt;- Las **</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>facturas de compra**</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(proveedores), quedan registradas en el periodo tributario en que se les dió acuse de recibo.&lt;br&gt;&lt;br&gt;Recuerda que los documentos electrónicos **no** pueden agregarse ni cambiarse de periodo en el RCV, lo que debe ser consistente con la declaración del F29.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Las **</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ventas de cigarrillos** por parte minoristas se deben declarar en los **códigos de margen de comercialización** **[731]** y **[732]** del F29.</t>
-    </r>
-  </si>
-  <si>
-    <t>las facturas de compra electronica (46), se declara iva?</t>
-  </si>
-  <si>
-    <t>IVA - declaracion importaciones</t>
-  </si>
-  <si>
-    <t>http://www.sii.cl/preguntas_frecuentes/catastro/001_012_7008.htm</t>
-  </si>
-  <si>
-    <t>IVA - rcv que es</t>
-  </si>
-  <si>
-    <t>IVA - declaracion rectificar plazos y maximo de veces</t>
-  </si>
-  <si>
-    <t>IVA - calcular determinar iva</t>
-  </si>
-  <si>
-    <t>http://www.sii.cl/preguntas_frecuentes/iva/001_030_2364.htm</t>
-  </si>
-  <si>
-    <t>IVA - propuesta por que no tengo</t>
-  </si>
-  <si>
-    <t>IVA - declaracion exportaciones</t>
-  </si>
-  <si>
-    <t>IVA - factura no incluida por error - RECTIFICAR</t>
-  </si>
-  <si>
-    <t>IVA - pago inconcluso que hacer</t>
-  </si>
-  <si>
-    <t>IVA - iva uso comun que es</t>
-  </si>
-  <si>
-    <t>IVA - codigo 520 facturas</t>
-  </si>
-  <si>
-    <t>IVA - factura electronica registro</t>
-  </si>
-  <si>
-    <t>IVA - declaracion cigarros minoristas</t>
-  </si>
-  <si>
-    <t>IVA - declaracion facturas de compra electronicas</t>
-  </si>
-  <si>
-    <t>Hola! Por que no se registraron facturas de compra?</t>
-  </si>
-  <si>
-    <t>COMO PUEDO DECLARAN LAS FACTURAS DE CIGARROS</t>
-  </si>
-  <si>
-    <t>que impuesto debo pagar por exportaciones a según tratado internacional</t>
-  </si>
-  <si>
-    <t>¿Cómo se determina el IVA?</t>
-  </si>
-  <si>
-    <t>¿Hasta cuántos períodos puedo rectificar en el IVA?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para declarar las **Facturas de Compra Electrónicas recibidas**, considera que:&lt;br&gt;- Para **retención total**,  se declara el monto neto en el **código [587]** del F29.&lt;br&gt;- Para **retención parcial**, se declara el monto neto en el **código [720]** y el **monto IVA no retenido** en el ^^código [517]** del F29.\n\nEl **retenedor** en cambio, debe declarar el IVA retenido **al reverso del F29** en los **códigos [39]** o **[554]** según corresponda.
-</t>
-  </si>
-  <si>
-    <t>En la Declaración de Formulario 29, tengo una IVA ANTICIPADO por cambio de sujeto, como obtengo el detalle?
-IVA ANTICIPADO DEL PERIODO?</t>
-  </si>
-  <si>
-    <t>hola me da un error PRE-0006-202..., por favor reintente más tarde
-Estimado Contribuyente ha ocurrido un error signado con el código: PRE-0006-001..., por favor reintente más tarde
-PRE-0006-001
-no puedo cancelar mi impuesto me aparece el siguiente mensaje: NO ES zeus.sii.cl</t>
-  </si>
-  <si>
-    <t>consulta, los montos de las boletas deben ser exaxtos o pueden tener decimales????</t>
-  </si>
-  <si>
-    <t>Para revisar el **detalle de un IVA anticipado** por cambio de sujeto, debes ingresar al **Registro de Compras**.</t>
-  </si>
-  <si>
-    <t>Si la página arroja algún **error genérico**, te recomendamos **borrar las cookies y el historial de navegación**, antes de intentar nuevamente.\nSi el problema persiste, por favor contáctanos a través de la **Mesa de Ayuda** (22 395 1115 - 22 395 1000).</t>
-  </si>
-  <si>
-    <t>Los montos declarados en el F29 deben ser **exactos** (sin decimales).</t>
-  </si>
-  <si>
-    <t>IVA - revisar detalle iva anticipado</t>
-  </si>
-  <si>
-    <t>IVA - declaracion error generico</t>
-  </si>
-  <si>
-    <t>IVA - declaracion sin decimales</t>
-  </si>
-  <si>
     <t>Edición semana 09/11/18</t>
   </si>
   <si>
@@ -1921,34 +1419,6 @@
     <t>IVA - postergacion requisitos, como hacerlo y cuantas veces</t>
   </si>
   <si>
-    <t>puedo recuperar el iva
-me pueden devolver el iva.
-devolución de iva</t>
-  </si>
-  <si>
-    <t>Sólo se pueden **recuperar los remanentes de Créditos Fiscales IVA** que se encuentren **asociados a Exportaciones, Activo Fijo y Cambios de Sujeto**.\n\nPara mayor información, revisa la siguiente [pregunta frecuente](http://www.sii.cl/preguntas_frecuentes/iva/001_030_0638.htm).</t>
-  </si>
-  <si>
-    <t>http://www.sii.cl/preguntas_frecuentes/iva/001_030_0638.htm</t>
-  </si>
-  <si>
-    <t>IVA - recuperacion de remanenete export, act fijo y cambio de sujeto</t>
-  </si>
-  <si>
-    <t>como declaro iva proporcional
-iva proporcional
-proporcionalidad de iva</t>
-  </si>
-  <si>
-    <t>http://www.sii.cl/preguntas_frecuentes/iva/001_030_1909.htm</t>
-  </si>
-  <si>
-    <t>El **monto del Crédito Fiscal proporcional** determinado se declara en las **líneas 27 a la 34** del F29.\n\nPara mayor información, revisa la siguiente [pregunta frecuente](http://www.sii.cl/preguntas_frecuentes/iva/001_030_1909.htm).</t>
-  </si>
-  <si>
-    <t>IVA - iva proporcional declarar</t>
-  </si>
-  <si>
     <t>**No** existe un tiempo definido (o plazo legal) que determine la aplicación del remanente de Crédito Fiscal cuando no existen ventas que generen Débito Fiscal. Es decir, mientras no existan ventas que generen débito fiscal, el remanente se arrastrará periodo tras periodo.</t>
   </si>
   <si>
@@ -1958,110 +1428,16 @@
     <t>Si al intentar pagar el F29, el sistema no te permite ingresar a la página del Banco, debes verificar que las ventanas emergentes **NO** estén **bloqueadas**. De ser así, deberás desbloquearlas.\nSi el problema persiste, por favor contacta a la **Mesa de Ayuda** (22 395 1115 - 22 395 1000).</t>
   </si>
   <si>
-    <t>Si intentaste pagar el IVA (F29) pero el **pago quedó inconcluso**, debes **verificar con tu Banco** que **no** se haya efectuado el cargo. Si el cargo no se ha realizado, debes **volver a intentar** realizar el pago.\nRetoma tu declaración desde la [**Consulta Estado**](https://www4.sii.cl/rfiInternet/consulta/index.html#rfiSelFormularioPeriodo), búscala en **Intentos de Declaración**, click en "**ver**" y luego en "**continuar desde datos guardados**".\nRecuerda que sólo cuando se concrete el pago, la declaración se habrá ejecutado y tendrá validez.</t>
-  </si>
-  <si>
-    <t>context - IVA - NO pago</t>
-  </si>
-  <si>
-    <t>no puedo pagar el iva</t>
-  </si>
-  <si>
     <t>Si intentaste pagar el IVA (F29) pero el pago fue **rechazado por el banco**, debes declarar nuevamente y hacer efectivo el pago.\nRetoma tu declaración desde la [**Consulta Estado**](https://www4.sii.cl/rfiInternet/consulta/index.html#rfiSelFormularioPeriodo), búscala en **Intentos de Declaración**, click en "**ver**" y luego en "**continuar desde datos guardados**".\n\nRecuerda que sólo cuando se concrete el pago, la declaración se habrá ejecutado y tendrá validez.</t>
   </si>
   <si>
     <t>Recuerda que puedes **retomar** el ingreso de información en un Formulario 29, ya que los datos ingresados son almacenados en la opción "Guardar Datos".\nCuando ingreses nuevamente al periodo tributario que estabas declarando, tendrás la posibilidad de utilizar los datos guardados, o bien, de ingresar una nueva declaración.\n\nOtra manera es retomar la declaración desde la [**Consulta Estado**](https://www4.sii.cl/rfiInternet/consulta/index.html#rfiSelFormularioPeriodo). Búscala en **Intentos de Declaración**, haz clic en "**ver**" y luego "**continuar desde datos guardados**".</t>
   </si>
   <si>
-    <t>Por favor entréganos más información, indicando el número correspondiente. No puedo pagar porque…&lt;br&gt;1. No aparece la página del banco.&lt;br&gt;2. El pago fue rechazado.&lt;br&gt;3. El pago quedó inconcluso.&lt;br&gt;4. La página no carga (no aparece opción para "enviar declaración" (pagar)).&lt;br&gt;5. Página del banco indica que intente más tarde.&lt;br&gt;6. Otro.</t>
-  </si>
-  <si>
     <t>Para **declarar el IVA (F29) por Internet**, puedes hacerlo a través de:&lt;br&gt; 1. **Formulario Electrónico**.&lt;br&gt;2. **Archivo con software** (upload): para contribuyentes con software de mercado que genera archivos con los F29, que pueden subir al sitio web del SII.\n\nPara realizar tu declaración, ingresa a [**Declarar IVA (F29)**](http://www.sii.cl/servicios_online/1042-.html).\n\nRecuerda que tu propuesta se completa principalmente con información de tu RCV y con lo que ingresas a través del Asistente de Cálculo y Códigos a Complementar al momento de declarar. Cuando presiones el botón "**enviar declaración**", el sistema te dirigirá a una pantalla para el pago (si corresponde).\n\nPara revisar **instrucciones de llenado** ingresa al siguiente [link](http://www.sii.cl/como_se_hace_para/declarar_imp_mensuales/Declarar_Iva.pdf).</t>
   </si>
   <si>
-    <t>que sucede cuando hay documentos sin derecho a credito fiscal</t>
-  </si>
-  <si>
-    <t>IVA - documentos sin derecho a credito fiscal</t>
-  </si>
-  <si>
-    <t>si por error emite una factura con fecha octubre 2017, en vez del 2018, que sucede?</t>
-  </si>
-  <si>
-    <t>IVA - anular documento factura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en dos ocasiones e comprado con factura en una tienda eléctrica y las facturas no me aparecen en la paguina de SII por lo que debo ingresarlas manualmente, cual seria la causa de esto ? </t>
-  </si>
-  <si>
-    <t>Los **documentos tributarios electrónicos válidos** son sólo aquellos que han sido **recibidos correctamente por el SII**, y que están disponibles para ser [consultados](https://palena.sii.cl/cgi_dte/UPL/DTEauth?2), además de ser registrado en el Registro de Ventas del Vendedor como en el Registro de Compras del Comprador o Beneficiario del servicio.\nSi un **documento no ha sido recibido**, debe contactarse con el proveedor para verificar la situación y solicitar el reenvío, de lo contrario este documento ***no se considera válido**.</t>
-  </si>
-  <si>
-    <t>IVA - documentos electronicos validos requisito</t>
-  </si>
-  <si>
-    <t>Los **documentos sin derecho a crédito fiscal** se clasifican en el Registro de Compras con la caracterización **IVA No Recuperable**. Esta clasificación aplica para aquellas compras en que el comprador no tiene derecho a utilizar, por ejemplo, por encontrarse fuera de plazo.\nEstos se declaran en el **código [514]** del F29.</t>
-  </si>
-  <si>
-    <t>Si un documento tributario electrónico ha sido aceptado por el SII y se detecta, posteriormente, que debe ser **anulado**, se deberá proceder de la siguiente manera:\nSi el documento que debe anularse es una Factura Electrónica, Factura de Compra Electrónica o Factura Electrónica de Ventas y Servicios No Afectos o Exentos de IVA, se deberá emitir en el mismo período tributario, o a más tardar en el período tributario siguiente, una **Nota de Crédito Electrónica**, la cual deberá contener un campo que indique que se trata de una anulación.</t>
-  </si>
-  <si>
     <t>Edición semana 03/12/18</t>
-  </si>
-  <si>
-    <t>Las **facturas de exportaciones** deben ser ingresadas en el **Registro de Compras y Ventas (RCV)** y declaradas manualmente en el F29 en los **códigos [585] y [20]**, según corresponda.\n\nLas facturas de exportación donde **no** existe Rut de extranjeros, deberán ingresarse con el Rut **55.555.555-5**.\n\nPara mayor información, revisa los pasos de la guía haciendo click [aquí](http://www.sii.cl/destacados/factura_electronica/guias_ayuda/registrar_factura_exportacion.pdf).</t>
-  </si>
-  <si>
-    <t>http://www.sii.cl/destacados/factura_electronica/guias_ayuda/registrar_factura_exportacion.pdf</t>
-  </si>
-  <si>
-    <t>El **Crédito Fiscal** del mes es la suma de los impuestos recargados en las **adquisiciones de bienes y servicios** y, además, el impuesto soportado en las **importaciones**.</t>
-  </si>
-  <si>
-    <t>IVA - credito fiscal que es</t>
-  </si>
-  <si>
-    <t>¿Qué es el crédito fiscal en el IVA?</t>
-  </si>
-  <si>
-    <t>El SII en sus [oficinas](http://www.sii.cl/ayudas/asistencia/3048-res-3049.html), pone a disposición de los contribuyentes sólo un formulario en papel de Declaración de IVA (F29) por Cédula de Identidad, Rut original o fotocopia legalizada.\n\nPara declarar tus impuestos mensuales, prefiere hacer el trámite por internet, ingresando a: [Declarar IVA](http://www.sii.cl/servicios_online/1042-.html), o bien, siguiendo la ruta: **Servicios Online / Impuestos Mensuales / Declaración mensual (F29)**.</t>
-  </si>
-  <si>
-    <t>donde obtengo un formulario 29 en papel</t>
-  </si>
-  <si>
-    <t>IVA - f29 en papel oficinas</t>
-  </si>
-  <si>
-    <t>En el **formulario 50 (F50)** se declaran **Impuestos Adicionales** como por ejemplo: retenciones de impuesto por operaciones efectuadas con personas sin domicilio ni residencia en Chile, comercialización de combustibles, tabacos, juegos de azar, los hipódromos, entre otros.\n\nRevisa el listado completo de los impuestos que se declaran en este formulario ingresando [aquí](http://www.sii.cl/preguntas_frecuentes/iva/001_030_0159.htm).</t>
-  </si>
-  <si>
-    <t>IVA - f50 que es</t>
-  </si>
-  <si>
-    <t>http://www.sii.cl/preguntas_frecuentes/iva/001_030_0159.htm</t>
-  </si>
-  <si>
-    <t>que es el f50</t>
-  </si>
-  <si>
-    <t>Para **habilitar las ventanas emergentes**, prueba lo siguiente:&lt;br&gt;&lt;br&gt;En **Chrome**:&lt;br&gt;1. Abre Chrome. En la parte superior derecha, haz clic en los tres puntitos y, a continuación, **Configuración**.&lt;br&gt;2. En la parte inferior, haz clic en Configuración avanzada.&lt;br&gt;3. En la sección "**Privacidad y seguridad**", haz clic en **Configuración de contenido**.&lt;br&gt;4. Haz clic en Ventanas emergentes y redirecciones. En la parte superior, elige la opción Permitido.&lt;br&gt;&lt;br&gt;En **Internet Explorer**:&lt;br&gt;
-1. Abre Internet Explorer. Selecciona el botón **Herramientas** y después selecciona **Opciones de Internet**.&lt;br&gt;2. En la pestaña "**Privacidad**", donde dice Bloqueador de elementos emergentes, desactiva la casilla **Activar el bloqueador de elementos emergentes** y selecciona **Aceptar**.</t>
-  </si>
-  <si>
-    <t>General - desbloquear ventanas emergentes</t>
-  </si>
-  <si>
-    <t>Los contribuyentes acogidos al sistema de **tributación simplificada** deben declarar y pagar el IVA **entre el 1 y el 12** de los meses **abril, julio, octubre y enero del año siguiente**, correspondiente a los periodos: de enero a marzo; de abril a junio; de julio a septiembre y octubre a diciembre.\n\nPara mayor información sobre la tributación simplificada del IVA ingresa [aquí](http://www.sii.cl/preguntas_frecuentes/iva/001_030_0198.htm).</t>
-  </si>
-  <si>
-    <t>IVA - tributacion simplificada</t>
-  </si>
-  <si>
-    <t>como desbloqueo las ventanas emergentes</t>
-  </si>
-  <si>
-    <t>tributacion simplificada</t>
   </si>
   <si>
     <t>El pago de IVA por **arriendo de inmuebles** depende de si es:&lt;br&gt;- **Sin amoblar**: estará exento del IVA.&lt;br&gt;- **Amoblado** (incluidas las del verano): estará afecto a IVA, el cual es de cargo del arrendatario, pero es responsabilidad del arrendador recaudarlo y enterarlo en las arcas fiscales.\n\nEl IVA por arriendo de inmuebles amoblados se declara en el **código [713]** del F29.\n\nPara mayor información, ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_0793.htm).</t>
@@ -2074,98 +1450,6 @@
 </t>
   </si>
   <si>
-    <t>En caso de fiscalización, no es necesario mantener a la vista los pagos del F29, puesto que el SII ya los tiene en su poder.\n\nRecuerda que puedes **consultar el estado de tus declaraciones** en **Consulta Estado**, ingresando al siguiente [link](https://www4.sii.cl/rfiInternet/consulta/index.html#rfiSelFormularioPeriodo), para verificar si se encuentran vigentes.</t>
-  </si>
-  <si>
-    <t>IVA - fiscalizacion pagos a la vista</t>
-  </si>
-  <si>
-    <t>debo mantener los pagos de f29 a la vista en caso de fiscalización.</t>
-  </si>
-  <si>
-    <t>IVA - boleta exenta que es</t>
-  </si>
-  <si>
-    <t>que es boleta exenta</t>
-  </si>
-  <si>
-    <t>Una **boleta exenta** corresponde a un documento tributario que **se exime del pago de IVA**.</t>
-  </si>
-  <si>
-    <t>IVA - rcof que es y link enviar</t>
-  </si>
-  <si>
-    <t>necesito saber a que refiere: "presentar RCOF</t>
-  </si>
-  <si>
-    <t>El **IVA de las importaciones** se registra manualmente en el RCV con la Declaración de Ingreso emitida por el Servicio Nacional de Aduanas (DIN), en la opción "**agregar documento no electrónico recibido**", **código [914]**. El "**RUT contraparte**'' debe ser **55.555.555-5**. Si el ''N° folio'' es muy largo deberá informar sólo los 10 últimos dígitos. Los montos deben estar **en pesos**.\n\nLas DIN se declaran en el F29,  conforme al Crédito Fiscal por importaciones, que es equivalente al pago realizado por la importación de las especies al territorio nacional, y sólo puede usarse en el mismo período en que fue pagado. Las **importaciones del giro** se declaran en el **código [535]** y las **importaciones de activo fijo**, en el **código [553]**.</t>
-  </si>
-  <si>
-    <t>El **Reporte de Consumo de Folios** (RCOF), es un requerimiento para los contribuyentes autorizados a la emisión de boletas electrónicas y boletas no afectas o exentas electrónicas. Consiste en un **resumen de los folios consumidos**, además, monto neto, monto IVA y monto total relacionados. Este archivo electrónico se envía en forma diaria y en formato XML , de acuerdo al siguiente [formato](http://www.sii.cl/factura_electronica/factura_mercado/consumo_folios.pdf).\n\nLos contribuyentes deben enviar el RCOF desde la fecha de autorización del documento, establecida en la resolución de autorización, todos los días del año, sin excepción, aún cuando las boletas no se hayan emitido. El plazo para enviar dicho reporte es **hasta el mediodía del día siguiente a las operaciones a las cuales corresponde la boleta**.\n\nPara **enviar el RCOF** ingrese [aquí](https://palena.sii.cl/cgi_dte/UPL/DTEauth?1).</t>
-  </si>
-  <si>
-    <t>Si una factura **no** aparece en el Registro de Compras y Ventas:&lt;br&gt;1. Verifica que haya sido **aceptada por el SII**, ingresando a [Consultar validez de un documento](https://palena.sii.cl/cgi_dte/UPL/DTEauth?2).&lt;br&gt;2. Recuerda que el **plazo para dar acuse de recibo** es de **8 días corridos** desde su recepción, si no lo haces dentro del plazo, se dará acuse de recibo **automático**. El **crédito fiscal** de una factura se utiliza en el mes en que se hace el **acuse de recibo**, o cuando se cumple **8 días**.\n\nPara mayor información, contacta a la **Mesa de Ayuda** (**22 395 1115** - **22 395 1000**).</t>
-  </si>
-  <si>
-    <t>IVA - factura NO aparece en RCV</t>
-  </si>
-  <si>
-    <t>hola tengo facturas de compra que no aparecen en el libro de compra venta</t>
-  </si>
-  <si>
-    <t>https://palena.sii.cl/cgi_dte/UPL/DTEauth?2</t>
-  </si>
-  <si>
-    <t>Las **facturas electrónicas** que son **aceptadas por el SII**, se registran **automaticamente** en el RCV. Considera que:&lt;br&gt;- Las **facturas de venta**  quedan registradas en el periodo tributario de **emisión** de la misma.&lt;br&gt;- Las **facturas de compra** (proveedores) quedan registradas en el periodo tributario en que se les dió **acuse de recibo**.\n\nRecuerda que los **documentos electrónicos** (DTE) **no** pueden agregarse ni cambiarse de periodo en el RCV, lo que debe ser consistente con la declaración del F29.</t>
-  </si>
-  <si>
-    <t>http://www.sii.cl/normativa_legislacion/dl824.pdf
-http://www.sii.cl/como_se_hace_para/boletas/emitir_boletas.pdf</t>
-  </si>
-  <si>
-    <t>Recuerda que las **tasas de PPM** se definen **por un año**, es decir, **no** puedes declarar tasa diferentes casa mes.\n\nAccede al procedimiento para el **cálculo de la tasa variable de PPM**, en el caso de los contribuyentes del Impuesto de Primera Categoría que determinan su renta efectiva, [aquí](http://www.sii.cl/preguntas_frecuentes/renta/001_002_0700.htm).</t>
-  </si>
-  <si>
-    <t>Clasificación sobre la **naturaleza de una operación** en el **Registro de Compras** (RC):&lt;br&gt;- **Activo Fijo**: identifica aquellas compras de bienes que han sido adquiridos o construidos con el ánimo de usarlos en forma permanente en la explotación del giro del contribuyente y que corresponden principalmente a parte de la infraestructura física del negocio.&lt;br&gt;- **Del Giro**: significa que la factura respalda compras relacionadas con la actividad declarada por el contribuyente al SII.\n\nPara ver más opciones de caracterización, ingresa [aquí](http://www.sii.cl/preguntas_frecuentes/catastro/001_012_6987.htm).</t>
-  </si>
-  <si>
-    <t>http://www.sii.cl/preguntas_frecuentes/catastro/001_012_6987.htm</t>
-  </si>
-  <si>
-    <t>La **recuperación** del **Impuesto Específico del Petróleo Diésel** se declara en el F29 en:&lt;br&gt;1. **Línea 42 código [127]**, para aquellos contribuyentes que cumplan con lo señalado en el Art. 7º Ley 18.502, Arts. 1º y 3º D.S. Nº311/86, como por ejemplo un contribuyente agricultor o un Industrial, que **NO** sea Transportista de Carga. Para mayor información ingresa [aquí](http://www.sii.cl/preguntas_frecuentes/iva/001_030_6124.htm).&lt;br&gt;2. **Línea 43 código [544]** para transportista de carga de acuerdo a lo señalado en Art. 2º Ley 19.764. Para mayor información ingresa [aquí](http://www.sii.cl/preguntas_frecuentes/iva/001_030_6125.htm).</t>
-  </si>
-  <si>
-    <t>http://www.sii.cl/preguntas_frecuentes/iva/001_030_6124.htm
-http://www.sii.cl/preguntas_frecuentes/iva/001_030_6125.htm</t>
-  </si>
-  <si>
-    <t>Tambien contrate un maestro para que me hiciera unos arreglos y tampoco me dio documento, puedo emitir una Boleta de Honorarios de Terceros electronica por eso?</t>
-  </si>
-  <si>
-    <t>si un mes pago ppm 1 % y al otro mes se declaro 0.25%  hay problema en eso?</t>
-  </si>
-  <si>
-    <t>como definir si es activo fijo o del giro</t>
-  </si>
-  <si>
-    <t>como se calcula el credito por impuesto especifico de combustible</t>
-  </si>
-  <si>
-    <t>IVA - boleta de prestacion de terceros a quien se emiten</t>
-  </si>
-  <si>
-    <t>Las **Boletas de Prestación de Servicios de Terceros** deben emitirse a **personas naturales** que realizan actividades gravadas por el **Art. 42° N° 2** de la [**Ley sobre Impuesto a la Renta**](http://www.sii.cl/normativa_legislacion/dl824.pdf) y que **no** han efectuado Inicio de Actividades (no pueden emitir boletas de honorarios).\n\nLas personas jurídicas en general, así como las personas que paguen rentas de la Primera Categoría que emitan boletas de prestación de servicio de terceros, deberán **retener, declarar y enterar** en arcas fiscales el tributo correspondiente a la tasa del 10%, a través del F29.\n\nSi necesitas una guía de apoyo para emitirla, ingresa [aquí](http://www.sii.cl/como_se_hace_para/boletas/emitir_boletas.pdf).</t>
-  </si>
-  <si>
-    <t>IVA - tasa de PPM NO distinta cada mes - dura un año</t>
-  </si>
-  <si>
-    <t>IVA - clasificiacion de operacion en registro de compras</t>
-  </si>
-  <si>
-    <t>IVA - combustible recuperacion donde se declara</t>
-  </si>
-  <si>
     <t>Si cancelaste el IVA mediante Pago en Línea (PEL) o pago con convenio en Cuenta Corriente (PEC) y se hizo el cargo en tu cuenta bancaria pero no muestra el certificado solemne, debes esperar **48 horas** para que el banco confirme la transacción al SII (conciliación), sólo en ese momento la declaración aparecerá "Aceptada" en la Consulta de Estado y se emitirá el **Certificado Solemne**.\n\Considera que si el cargo en tu cuenta bancaria se realizó dentro del plazo, no tendrás multas (por atraso), independiente de la fecha de la conciliación bancaria.</t>
   </si>
   <si>
@@ -2177,18 +1461,6 @@
   <si>
     <t>Para **declarar el IVA (F29) por Internet**, puedes hacerlo a través de:&lt;br&gt; 1. **Formulario Electrónico**.&lt;br&gt;2. **Archivo con software** (upload).\n\n.
 Para realizar tu declaración, ingresa a [**Declarar IVA (F29)**](http://www.sii.cl/servicios_online/1042-.html).\n\nRecuerda que tu propuesta se completa principalmente con información de tu RCV y con lo que ingresas a través del Asistente de Cálculo y Códigos a Complementar al momento de declarar. Cuando presiones el botón "**enviar declaración**", el sistema te dirigirá a una pantalla para el pago (si corresponde).&lt;br&gt;&lt;br&gt;En el caso que la **declaración esté guardada y quieras proceder con el pago**, tienes 2 opciones:&lt;br&gt;&lt;br&gt;1) Ingresa a [**Declarar IVA (F29)**](http://www.sii.cl/servicios_online/1042-.html). Selecciona el periodo a declarar y clic en “**aceptar**”. Luego, clic en “**Continuar desde declaración guardada**”. Se mostrará el formulario guardado, si está correcto haz clic en “**enviar declaración**”. El sistema te re direccionará a una pantalla para efectuar el pago (si corresponde).&lt;br&gt;&lt;br&gt;2) Retomar la declaración desde la [**Consulta Estado**](https://www4.sii.cl/rfiInternet/consulta/index.html#rfiSelFormularioPeriodo). Selecciona el periodo y el tipo de declaración y haz clic en “**aceptar**”. Búscala en **Datos guardados** y haz clic sobre ella (donde dice “guardada”). Luego, clic en "**continuar desde datos guardados**". Se mostrará el formulario guardado, si está correcto haz clic en “**enviar declaración**”. El sistema te re direccionará a una pantalla para efectuar el pago (si corresponde).&lt;br&gt;&lt;br&gt;Para revisar **instrucciones de llenado** ingresa al siguiente [link](http://www.sii.cl/como_se_hace_para/declarar_imp_mensuales/Declarar_Iva.pdf).</t>
-  </si>
-  <si>
-    <t>El **archivo con software** (upload) corresponde a una **modalidad para declarar el IVA (F29)** que aplica para contribuyentes que poseen **software de mercado** que genera archivos con los F29, que pueden subir al sitio web del SII.\n\nPara realizar tu declaración, ingresa a [**Declarar IVA (F29)**](http://www.sii.cl/servicios_online/1042-.html).</t>
-  </si>
-  <si>
-    <t>http://www.sii.cl/servicios_online/1042-.html</t>
-  </si>
-  <si>
-    <t>IVA - archivo con software que es</t>
-  </si>
-  <si>
-    <t>que es el archivo con software</t>
   </si>
   <si>
     <t>http://www.sii.cl/servicios_online/1042-.html
@@ -2298,7 +1570,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2469,70 +1741,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2726,12 +1939,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2768,9 +1975,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2860,54 +2064,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3235,13 +2391,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA142"/>
+  <dimension ref="A1:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C142" sqref="C2:C142"/>
+      <selection pane="bottomRight" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3267,47 +2423,47 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="67" t="s">
         <v>352</v>
       </c>
-      <c r="H1" s="70" t="s">
-        <v>361</v>
-      </c>
-      <c r="I1" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="J1" s="69" t="s">
-        <v>431</v>
-      </c>
-      <c r="K1" s="69" t="s">
-        <v>436</v>
-      </c>
-      <c r="L1" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="M1" s="69" t="s">
-        <v>470</v>
-      </c>
-      <c r="N1" s="69" t="s">
-        <v>490</v>
-      </c>
-      <c r="O1" s="69" t="s">
-        <v>524</v>
+      <c r="H1" s="68" t="s">
+        <v>358</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="K1" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="L1" s="67" t="s">
+        <v>381</v>
+      </c>
+      <c r="M1" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="N1" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="O1" s="67" t="s">
+        <v>392</v>
       </c>
       <c r="P1" s="35"/>
       <c r="Q1" s="35"/>
@@ -3338,9 +2494,9 @@
       <c r="E2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="53"/>
-      <c r="H2" s="71"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="53"/>
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
@@ -3379,7 +2535,7 @@
       <c r="G3" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="H3" s="72"/>
+      <c r="H3" s="70"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
@@ -3414,13 +2570,13 @@
         <v>297</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="F4" s="86"/>
+        <v>355</v>
+      </c>
+      <c r="F4" s="83"/>
       <c r="G4" s="46" t="s">
-        <v>356</v>
-      </c>
-      <c r="H4" s="73"/>
+        <v>354</v>
+      </c>
+      <c r="H4" s="71"/>
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
       <c r="K4" s="46"/>
@@ -3457,9 +2613,9 @@
       <c r="E5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="86"/>
+      <c r="F5" s="83"/>
       <c r="G5" s="46"/>
-      <c r="H5" s="73"/>
+      <c r="H5" s="71"/>
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
       <c r="K5" s="46"/>
@@ -3496,9 +2652,9 @@
       <c r="E6" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="86"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="46"/>
-      <c r="H6" s="73"/>
+      <c r="H6" s="71"/>
       <c r="I6" s="46"/>
       <c r="J6" s="46"/>
       <c r="K6" s="46"/>
@@ -3535,9 +2691,9 @@
       <c r="E7" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="86"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="46"/>
-      <c r="H7" s="73"/>
+      <c r="H7" s="71"/>
       <c r="I7" s="46"/>
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
@@ -3574,9 +2730,9 @@
       <c r="E8" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="86"/>
+      <c r="F8" s="83"/>
       <c r="G8" s="46"/>
-      <c r="H8" s="73"/>
+      <c r="H8" s="71"/>
       <c r="I8" s="46"/>
       <c r="J8" s="46"/>
       <c r="K8" s="46"/>
@@ -3613,9 +2769,9 @@
       <c r="E9" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="83"/>
       <c r="G9" s="46"/>
-      <c r="H9" s="73"/>
+      <c r="H9" s="71"/>
       <c r="I9" s="46"/>
       <c r="J9" s="46"/>
       <c r="K9" s="46"/>
@@ -3652,9 +2808,9 @@
       <c r="E10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="86"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="46"/>
-      <c r="H10" s="73"/>
+      <c r="H10" s="71"/>
       <c r="I10" s="46"/>
       <c r="J10" s="46"/>
       <c r="K10" s="46"/>
@@ -3691,9 +2847,9 @@
       <c r="E11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="86"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="46"/>
-      <c r="H11" s="73"/>
+      <c r="H11" s="71"/>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
       <c r="K11" s="46"/>
@@ -3730,9 +2886,9 @@
       <c r="E12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="86"/>
+      <c r="F12" s="83"/>
       <c r="G12" s="46"/>
-      <c r="H12" s="73"/>
+      <c r="H12" s="71"/>
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
       <c r="K12" s="46"/>
@@ -3769,9 +2925,9 @@
       <c r="E13" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="86"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="46"/>
-      <c r="H13" s="73"/>
+      <c r="H13" s="71"/>
       <c r="I13" s="46"/>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
@@ -3808,9 +2964,9 @@
       <c r="E14" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="86"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="46"/>
-      <c r="H14" s="73"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
       <c r="K14" s="46"/>
@@ -3847,9 +3003,9 @@
       <c r="E15" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="86"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="46"/>
-      <c r="H15" s="73"/>
+      <c r="H15" s="71"/>
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
       <c r="K15" s="46"/>
@@ -3886,9 +3042,9 @@
       <c r="E16" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="86"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="46"/>
-      <c r="H16" s="73"/>
+      <c r="H16" s="71"/>
       <c r="I16" s="46"/>
       <c r="J16" s="46"/>
       <c r="K16" s="46"/>
@@ -3925,11 +3081,11 @@
       <c r="E17" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="88" t="s">
+      <c r="F17" s="85" t="s">
         <v>91</v>
       </c>
       <c r="G17" s="51"/>
-      <c r="H17" s="74"/>
+      <c r="H17" s="72"/>
       <c r="I17" s="51"/>
       <c r="J17" s="51"/>
       <c r="K17" s="51"/>
@@ -3966,9 +3122,9 @@
       <c r="E18" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="86"/>
+      <c r="F18" s="83"/>
       <c r="G18" s="46"/>
-      <c r="H18" s="73"/>
+      <c r="H18" s="71"/>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
@@ -4005,11 +3161,11 @@
       <c r="E19" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="F19" s="89" t="s">
+      <c r="F19" s="86" t="s">
         <v>279</v>
       </c>
       <c r="G19" s="48"/>
-      <c r="H19" s="75"/>
+      <c r="H19" s="73"/>
       <c r="I19" s="48"/>
       <c r="J19" s="48"/>
       <c r="K19" s="48"/>
@@ -4044,21 +3200,21 @@
         <v>33</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="F20" s="86"/>
+        <v>365</v>
+      </c>
+      <c r="F20" s="83"/>
       <c r="G20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="73" t="s">
-        <v>377</v>
+      <c r="H20" s="71" t="s">
+        <v>364</v>
       </c>
       <c r="I20" s="46"/>
       <c r="J20" s="46"/>
       <c r="K20" s="46"/>
       <c r="L20" s="46"/>
       <c r="M20" s="46" t="s">
-        <v>489</v>
+        <v>387</v>
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="46"/>
@@ -4091,9 +3247,9 @@
       <c r="E21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="86"/>
+      <c r="F21" s="83"/>
       <c r="G21" s="46"/>
-      <c r="H21" s="73"/>
+      <c r="H21" s="71"/>
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
       <c r="K21" s="46"/>
@@ -4115,11 +3271,11 @@
       <c r="AA21" s="35"/>
     </row>
     <row r="22" spans="1:27" s="35" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="128">
+      <c r="A22" s="109">
         <v>22</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>433</v>
+        <v>370</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>111</v>
@@ -4130,19 +3286,19 @@
       <c r="E22" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="F22" s="92"/>
+      <c r="F22" s="89"/>
       <c r="G22" s="47"/>
-      <c r="H22" s="77"/>
+      <c r="H22" s="75"/>
       <c r="I22" s="47"/>
       <c r="J22" s="47" t="s">
-        <v>434</v>
+        <v>371</v>
       </c>
       <c r="K22" s="47"/>
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
       <c r="O22" s="47"/>
-      <c r="P22" s="129"/>
+      <c r="P22" s="110"/>
     </row>
     <row r="23" spans="1:27" s="1" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
@@ -4160,9 +3316,9 @@
       <c r="E23" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="F23" s="86"/>
+      <c r="F23" s="83"/>
       <c r="G23" s="46"/>
-      <c r="H23" s="73"/>
+      <c r="H23" s="71"/>
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
       <c r="K23" s="46"/>
@@ -4185,7 +3341,7 @@
     </row>
     <row r="24" spans="1:27" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
-        <v>432</v>
+        <v>369</v>
       </c>
       <c r="B24" s="40" t="s">
         <v>4</v>
@@ -4199,10 +3355,10 @@
       <c r="E24" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="89"/>
+      <c r="F24" s="86"/>
       <c r="G24" s="48"/>
-      <c r="H24" s="75" t="s">
-        <v>362</v>
+      <c r="H24" s="73" t="s">
+        <v>359</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="48"/>
@@ -4238,23 +3394,23 @@
         <v>300</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>530</v>
-      </c>
-      <c r="F25" s="87"/>
+        <v>394</v>
+      </c>
+      <c r="F25" s="84"/>
       <c r="G25" s="57"/>
-      <c r="H25" s="73" t="s">
-        <v>374</v>
+      <c r="H25" s="71" t="s">
+        <v>361</v>
       </c>
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
       <c r="K25" s="46"/>
       <c r="L25" s="46" t="s">
-        <v>460</v>
+        <v>385</v>
       </c>
       <c r="M25" s="46"/>
       <c r="N25" s="46"/>
       <c r="O25" s="46" t="s">
-        <v>525</v>
+        <v>393</v>
       </c>
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
@@ -4285,13 +3441,13 @@
       <c r="E26" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="86"/>
+      <c r="F26" s="83"/>
       <c r="G26" s="46"/>
-      <c r="H26" s="73"/>
+      <c r="H26" s="71"/>
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
       <c r="K26" s="46" t="s">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="L26" s="46"/>
       <c r="M26" s="46"/>
@@ -4326,9 +3482,9 @@
       <c r="E27" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="90"/>
+      <c r="F27" s="87"/>
       <c r="G27" s="46"/>
-      <c r="H27" s="73"/>
+      <c r="H27" s="71"/>
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
       <c r="K27" s="46"/>
@@ -4363,13 +3519,13 @@
         <v>226</v>
       </c>
       <c r="E28" s="33"/>
-      <c r="F28" s="87"/>
+      <c r="F28" s="84"/>
       <c r="G28" s="46"/>
-      <c r="H28" s="73"/>
+      <c r="H28" s="71"/>
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
       <c r="K28" s="46" t="s">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="L28" s="46"/>
       <c r="M28" s="46"/>
@@ -4402,18 +3558,18 @@
         <v>228</v>
       </c>
       <c r="E29" s="34"/>
-      <c r="F29" s="91"/>
+      <c r="F29" s="88"/>
       <c r="G29" s="49"/>
-      <c r="H29" s="76"/>
+      <c r="H29" s="74"/>
       <c r="I29" s="49"/>
       <c r="J29" s="49"/>
       <c r="K29" s="49"/>
       <c r="L29" s="49" t="s">
-        <v>458</v>
+        <v>384</v>
       </c>
       <c r="M29" s="49"/>
       <c r="N29" s="49" t="s">
-        <v>523</v>
+        <v>391</v>
       </c>
       <c r="O29" s="49"/>
       <c r="P29" s="35"/>
@@ -4445,11 +3601,11 @@
       <c r="E30" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="89" t="s">
+      <c r="F30" s="86" t="s">
         <v>279</v>
       </c>
       <c r="G30" s="48"/>
-      <c r="H30" s="75"/>
+      <c r="H30" s="73"/>
       <c r="I30" s="48"/>
       <c r="J30" s="48"/>
       <c r="K30" s="48"/>
@@ -4486,9 +3642,9 @@
       <c r="E31" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="90"/>
+      <c r="F31" s="87"/>
       <c r="G31" s="46"/>
-      <c r="H31" s="73"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="46"/>
       <c r="J31" s="46"/>
       <c r="K31" s="46"/>
@@ -4523,9 +3679,9 @@
         <v>237</v>
       </c>
       <c r="E32" s="34"/>
-      <c r="F32" s="90"/>
+      <c r="F32" s="87"/>
       <c r="G32" s="46"/>
-      <c r="H32" s="73"/>
+      <c r="H32" s="71"/>
       <c r="I32" s="46"/>
       <c r="J32" s="46"/>
       <c r="K32" s="46"/>
@@ -4560,9 +3716,9 @@
         <v>21</v>
       </c>
       <c r="E33" s="25"/>
-      <c r="F33" s="86"/>
+      <c r="F33" s="83"/>
       <c r="G33" s="46"/>
-      <c r="H33" s="73"/>
+      <c r="H33" s="71"/>
       <c r="I33" s="46"/>
       <c r="J33" s="46"/>
       <c r="K33" s="46"/>
@@ -4599,9 +3755,9 @@
       <c r="E34" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="F34" s="86"/>
+      <c r="F34" s="83"/>
       <c r="G34" s="47"/>
-      <c r="H34" s="77"/>
+      <c r="H34" s="75"/>
       <c r="I34" s="47"/>
       <c r="J34" s="47"/>
       <c r="K34" s="47"/>
@@ -4638,9 +3794,9 @@
       <c r="E35" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="86"/>
+      <c r="F35" s="83"/>
       <c r="G35" s="46"/>
-      <c r="H35" s="73"/>
+      <c r="H35" s="71"/>
       <c r="I35" s="46"/>
       <c r="J35" s="46"/>
       <c r="K35" s="46"/>
@@ -4675,16 +3831,16 @@
         <v>19</v>
       </c>
       <c r="E36" s="25"/>
-      <c r="F36" s="86"/>
+      <c r="F36" s="83"/>
       <c r="G36" s="46"/>
-      <c r="H36" s="73"/>
+      <c r="H36" s="71"/>
       <c r="I36" s="46"/>
       <c r="J36" s="46"/>
       <c r="K36" s="46"/>
       <c r="L36" s="46"/>
       <c r="M36" s="46"/>
       <c r="N36" s="46" t="s">
-        <v>522</v>
+        <v>390</v>
       </c>
       <c r="O36" s="46"/>
       <c r="P36" s="35"/>
@@ -4714,9 +3870,9 @@
         <v>35</v>
       </c>
       <c r="E37" s="27"/>
-      <c r="F37" s="86"/>
+      <c r="F37" s="83"/>
       <c r="G37" s="46"/>
-      <c r="H37" s="73"/>
+      <c r="H37" s="71"/>
       <c r="I37" s="46"/>
       <c r="J37" s="46"/>
       <c r="K37" s="46"/>
@@ -4753,9 +3909,9 @@
       <c r="E38" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="90"/>
+      <c r="F38" s="87"/>
       <c r="G38" s="46"/>
-      <c r="H38" s="73"/>
+      <c r="H38" s="71"/>
       <c r="I38" s="46"/>
       <c r="J38" s="46"/>
       <c r="K38" s="46"/>
@@ -4792,9 +3948,9 @@
       <c r="E39" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="86"/>
+      <c r="F39" s="83"/>
       <c r="G39" s="46"/>
-      <c r="H39" s="73"/>
+      <c r="H39" s="71"/>
       <c r="I39" s="46"/>
       <c r="J39" s="46"/>
       <c r="K39" s="46"/>
@@ -4831,9 +3987,9 @@
       <c r="E40" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="F40" s="86"/>
+      <c r="F40" s="83"/>
       <c r="G40" s="46"/>
-      <c r="H40" s="73"/>
+      <c r="H40" s="71"/>
       <c r="I40" s="46"/>
       <c r="J40" s="46"/>
       <c r="K40" s="46"/>
@@ -4870,9 +4026,9 @@
       <c r="E41" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="F41" s="86"/>
+      <c r="F41" s="83"/>
       <c r="G41" s="46"/>
-      <c r="H41" s="73"/>
+      <c r="H41" s="71"/>
       <c r="I41" s="46"/>
       <c r="J41" s="46"/>
       <c r="K41" s="46"/>
@@ -4909,9 +4065,9 @@
       <c r="E42" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="86"/>
+      <c r="F42" s="83"/>
       <c r="G42" s="46"/>
-      <c r="H42" s="73"/>
+      <c r="H42" s="71"/>
       <c r="I42" s="46"/>
       <c r="J42" s="46"/>
       <c r="K42" s="46"/>
@@ -4946,13 +4102,13 @@
         <v>139</v>
       </c>
       <c r="E43" s="27"/>
-      <c r="F43" s="86"/>
+      <c r="F43" s="83"/>
       <c r="G43" s="46"/>
-      <c r="H43" s="73"/>
+      <c r="H43" s="71"/>
       <c r="I43" s="46"/>
       <c r="J43" s="46"/>
       <c r="K43" s="46" t="s">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="L43" s="46"/>
       <c r="M43" s="46"/>
@@ -4987,14 +4143,14 @@
       <c r="E44" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="F44" s="86"/>
+      <c r="F44" s="83"/>
       <c r="G44" s="46"/>
-      <c r="H44" s="73"/>
+      <c r="H44" s="71"/>
       <c r="I44" s="46"/>
       <c r="J44" s="46"/>
       <c r="K44" s="46"/>
       <c r="L44" s="46" t="s">
-        <v>457</v>
+        <v>383</v>
       </c>
       <c r="M44" s="46"/>
       <c r="N44" s="46"/>
@@ -5026,9 +4182,9 @@
         <v>141</v>
       </c>
       <c r="E45" s="27"/>
-      <c r="F45" s="86"/>
+      <c r="F45" s="83"/>
       <c r="G45" s="46"/>
-      <c r="H45" s="73"/>
+      <c r="H45" s="71"/>
       <c r="I45" s="46"/>
       <c r="J45" s="46"/>
       <c r="K45" s="46"/>
@@ -5065,9 +4221,9 @@
       <c r="E46" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="F46" s="86"/>
+      <c r="F46" s="83"/>
       <c r="G46" s="46"/>
-      <c r="H46" s="73"/>
+      <c r="H46" s="71"/>
       <c r="I46" s="46"/>
       <c r="J46" s="46"/>
       <c r="K46" s="46"/>
@@ -5093,7 +4249,7 @@
         <v>138</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>442</v>
+        <v>379</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>175</v>
@@ -5104,13 +4260,13 @@
       <c r="E47" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="F47" s="90"/>
+      <c r="F47" s="87"/>
       <c r="G47" s="46"/>
-      <c r="H47" s="73"/>
+      <c r="H47" s="71"/>
       <c r="I47" s="46"/>
       <c r="J47" s="46"/>
       <c r="K47" s="46" t="s">
-        <v>441</v>
+        <v>378</v>
       </c>
       <c r="L47" s="46"/>
       <c r="M47" s="46"/>
@@ -5143,12 +4299,12 @@
         <v>276</v>
       </c>
       <c r="E48" s="27"/>
-      <c r="F48" s="90"/>
+      <c r="F48" s="87"/>
       <c r="G48" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="H48" s="73" t="s">
-        <v>375</v>
+      <c r="H48" s="71" t="s">
+        <v>362</v>
       </c>
       <c r="I48" s="46"/>
       <c r="J48" s="46"/>
@@ -5184,13 +4340,13 @@
         <v>240</v>
       </c>
       <c r="E49" s="27"/>
-      <c r="F49" s="86"/>
+      <c r="F49" s="83"/>
       <c r="G49" s="46"/>
-      <c r="H49" s="73"/>
+      <c r="H49" s="71"/>
       <c r="I49" s="46"/>
       <c r="J49" s="46"/>
       <c r="K49" s="46" t="s">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="L49" s="46"/>
       <c r="M49" s="46"/>
@@ -5225,9 +4381,9 @@
       <c r="E50" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="F50" s="86"/>
+      <c r="F50" s="83"/>
       <c r="G50" s="46"/>
-      <c r="H50" s="73"/>
+      <c r="H50" s="71"/>
       <c r="I50" s="46"/>
       <c r="J50" s="46"/>
       <c r="K50" s="46"/>
@@ -5262,9 +4418,9 @@
         <v>143</v>
       </c>
       <c r="E51" s="27"/>
-      <c r="F51" s="86"/>
+      <c r="F51" s="83"/>
       <c r="G51" s="46"/>
-      <c r="H51" s="73"/>
+      <c r="H51" s="71"/>
       <c r="I51" s="46"/>
       <c r="J51" s="46"/>
       <c r="K51" s="46"/>
@@ -5301,9 +4457,9 @@
       <c r="E52" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="F52" s="86"/>
+      <c r="F52" s="83"/>
       <c r="G52" s="46"/>
-      <c r="H52" s="73"/>
+      <c r="H52" s="71"/>
       <c r="I52" s="46"/>
       <c r="J52" s="46"/>
       <c r="K52" s="46"/>
@@ -5340,12 +4496,12 @@
       <c r="E53" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="F53" s="86"/>
+      <c r="F53" s="83"/>
       <c r="G53" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="H53" s="73" t="s">
-        <v>379</v>
+      <c r="H53" s="71" t="s">
+        <v>366</v>
       </c>
       <c r="I53" s="46"/>
       <c r="J53" s="46"/>
@@ -5381,9 +4537,9 @@
         <v>146</v>
       </c>
       <c r="E54" s="27"/>
-      <c r="F54" s="86"/>
+      <c r="F54" s="83"/>
       <c r="G54" s="46"/>
-      <c r="H54" s="73"/>
+      <c r="H54" s="71"/>
       <c r="I54" s="46"/>
       <c r="J54" s="46"/>
       <c r="K54" s="46"/>
@@ -5420,9 +4576,9 @@
       <c r="E55" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="86"/>
+      <c r="F55" s="83"/>
       <c r="G55" s="46"/>
-      <c r="H55" s="73"/>
+      <c r="H55" s="71"/>
       <c r="I55" s="46"/>
       <c r="J55" s="46"/>
       <c r="K55" s="46"/>
@@ -5457,9 +4613,9 @@
         <v>147</v>
       </c>
       <c r="E56" s="27"/>
-      <c r="F56" s="86"/>
+      <c r="F56" s="83"/>
       <c r="G56" s="46"/>
-      <c r="H56" s="73"/>
+      <c r="H56" s="71"/>
       <c r="I56" s="46"/>
       <c r="J56" s="46"/>
       <c r="K56" s="46"/>
@@ -5496,9 +4652,9 @@
       <c r="E57" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="86"/>
+      <c r="F57" s="83"/>
       <c r="G57" s="46"/>
-      <c r="H57" s="73"/>
+      <c r="H57" s="71"/>
       <c r="I57" s="46"/>
       <c r="J57" s="46"/>
       <c r="K57" s="46"/>
@@ -5535,9 +4691,9 @@
       <c r="E58" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="86"/>
+      <c r="F58" s="83"/>
       <c r="G58" s="46"/>
-      <c r="H58" s="73"/>
+      <c r="H58" s="71"/>
       <c r="I58" s="46"/>
       <c r="J58" s="46"/>
       <c r="K58" s="46"/>
@@ -5572,9 +4728,9 @@
         <v>149</v>
       </c>
       <c r="E59" s="27"/>
-      <c r="F59" s="86"/>
+      <c r="F59" s="83"/>
       <c r="G59" s="46"/>
-      <c r="H59" s="73"/>
+      <c r="H59" s="71"/>
       <c r="I59" s="46"/>
       <c r="J59" s="46"/>
       <c r="K59" s="46"/>
@@ -5600,7 +4756,7 @@
         <v>151</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>439</v>
+        <v>376</v>
       </c>
       <c r="C60" s="64" t="s">
         <v>187</v>
@@ -5608,18 +4764,18 @@
       <c r="D60" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="E60" s="83" t="s">
-        <v>438</v>
-      </c>
-      <c r="F60" s="93"/>
+      <c r="E60" s="80" t="s">
+        <v>375</v>
+      </c>
+      <c r="F60" s="90"/>
       <c r="G60" s="46"/>
-      <c r="H60" s="73" t="s">
-        <v>376</v>
+      <c r="H60" s="71" t="s">
+        <v>363</v>
       </c>
       <c r="I60" s="46"/>
       <c r="J60" s="46"/>
       <c r="K60" s="46" t="s">
-        <v>437</v>
+        <v>374</v>
       </c>
       <c r="L60" s="46"/>
       <c r="M60" s="46"/>
@@ -5651,12 +4807,12 @@
       <c r="D61" s="46" t="s">
         <v>303</v>
       </c>
-      <c r="E61" s="83" t="s">
+      <c r="E61" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="F61" s="93"/>
+      <c r="F61" s="90"/>
       <c r="G61" s="46"/>
-      <c r="H61" s="73"/>
+      <c r="H61" s="71"/>
       <c r="I61" s="46"/>
       <c r="J61" s="46"/>
       <c r="K61" s="46"/>
@@ -5690,10 +4846,10 @@
       <c r="D62" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="E62" s="83"/>
-      <c r="F62" s="93"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="90"/>
       <c r="G62" s="46"/>
-      <c r="H62" s="73"/>
+      <c r="H62" s="71"/>
       <c r="I62" s="46"/>
       <c r="J62" s="46"/>
       <c r="K62" s="46"/>
@@ -5727,12 +4883,12 @@
       <c r="D63" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="E63" s="83" t="s">
+      <c r="E63" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="F63" s="93"/>
+      <c r="F63" s="90"/>
       <c r="G63" s="46"/>
-      <c r="H63" s="73"/>
+      <c r="H63" s="71"/>
       <c r="I63" s="46"/>
       <c r="J63" s="46"/>
       <c r="K63" s="46"/>
@@ -5754,24 +4910,24 @@
       <c r="AA63" s="35"/>
     </row>
     <row r="64" spans="1:27" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="109">
+      <c r="A64" s="106">
         <v>155</v>
       </c>
       <c r="B64" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="C64" s="101" t="s">
+      <c r="C64" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="D64" s="107" t="s">
+      <c r="D64" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="E64" s="104" t="s">
+      <c r="E64" s="101" t="s">
         <v>198</v>
       </c>
-      <c r="F64" s="94"/>
+      <c r="F64" s="91"/>
       <c r="G64" s="48"/>
-      <c r="H64" s="75"/>
+      <c r="H64" s="73"/>
       <c r="I64" s="48"/>
       <c r="J64" s="48"/>
       <c r="K64" s="48"/>
@@ -5793,7 +4949,7 @@
       <c r="AA64" s="35"/>
     </row>
     <row r="65" spans="1:27" s="1" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="110">
+      <c r="A65" s="107">
         <v>156</v>
       </c>
       <c r="B65" s="38" t="s">
@@ -5805,10 +4961,10 @@
       <c r="D65" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="E65" s="83"/>
-      <c r="F65" s="95"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="92"/>
       <c r="G65" s="46"/>
-      <c r="H65" s="73"/>
+      <c r="H65" s="71"/>
       <c r="I65" s="46"/>
       <c r="J65" s="46"/>
       <c r="K65" s="46"/>
@@ -5830,22 +4986,22 @@
       <c r="AA65" s="35"/>
     </row>
     <row r="66" spans="1:27" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="109">
+      <c r="A66" s="106">
         <v>157</v>
       </c>
       <c r="B66" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="C66" s="101" t="s">
+      <c r="C66" s="98" t="s">
         <v>202</v>
       </c>
-      <c r="D66" s="107" t="s">
+      <c r="D66" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="E66" s="104"/>
-      <c r="F66" s="96"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="93"/>
       <c r="G66" s="48"/>
-      <c r="H66" s="75"/>
+      <c r="H66" s="73"/>
       <c r="I66" s="48"/>
       <c r="J66" s="48"/>
       <c r="K66" s="48"/>
@@ -5879,10 +5035,10 @@
       <c r="D67" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="E67" s="83"/>
-      <c r="F67" s="93"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="90"/>
       <c r="G67" s="46"/>
-      <c r="H67" s="73"/>
+      <c r="H67" s="71"/>
       <c r="I67" s="46"/>
       <c r="J67" s="46"/>
       <c r="K67" s="46"/>
@@ -5916,10 +5072,10 @@
       <c r="D68" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="E68" s="83"/>
-      <c r="F68" s="93"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="90"/>
       <c r="G68" s="46"/>
-      <c r="H68" s="73"/>
+      <c r="H68" s="71"/>
       <c r="I68" s="46"/>
       <c r="J68" s="46"/>
       <c r="K68" s="46"/>
@@ -5941,7 +5097,7 @@
       <c r="AA68" s="35"/>
     </row>
     <row r="69" spans="1:27" s="1" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="110">
+      <c r="A69" s="107">
         <v>160</v>
       </c>
       <c r="B69" s="38" t="s">
@@ -5953,12 +5109,12 @@
       <c r="D69" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="E69" s="83" t="s">
+      <c r="E69" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="F69" s="97"/>
+      <c r="F69" s="94"/>
       <c r="G69" s="46"/>
-      <c r="H69" s="73"/>
+      <c r="H69" s="71"/>
       <c r="I69" s="46"/>
       <c r="J69" s="46"/>
       <c r="K69" s="46"/>
@@ -5992,10 +5148,10 @@
       <c r="D70" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="E70" s="83"/>
-      <c r="F70" s="93"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="90"/>
       <c r="G70" s="46"/>
-      <c r="H70" s="73"/>
+      <c r="H70" s="71"/>
       <c r="I70" s="46"/>
       <c r="J70" s="46"/>
       <c r="K70" s="46"/>
@@ -6029,10 +5185,10 @@
       <c r="D71" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="E71" s="83"/>
-      <c r="F71" s="93"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="90"/>
       <c r="G71" s="46"/>
-      <c r="H71" s="73"/>
+      <c r="H71" s="71"/>
       <c r="I71" s="46"/>
       <c r="J71" s="46"/>
       <c r="K71" s="46"/>
@@ -6054,7 +5210,7 @@
       <c r="AA71" s="35"/>
     </row>
     <row r="72" spans="1:27" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A72" s="110">
+      <c r="A72" s="107">
         <v>163</v>
       </c>
       <c r="B72" s="38" t="s">
@@ -6066,10 +5222,10 @@
       <c r="D72" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="E72" s="83"/>
-      <c r="F72" s="97"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="94"/>
       <c r="G72" s="46"/>
-      <c r="H72" s="73"/>
+      <c r="H72" s="71"/>
       <c r="I72" s="46"/>
       <c r="J72" s="46"/>
       <c r="K72" s="46"/>
@@ -6103,10 +5259,10 @@
       <c r="D73" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="E73" s="83"/>
-      <c r="F73" s="93"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="90"/>
       <c r="G73" s="46"/>
-      <c r="H73" s="73"/>
+      <c r="H73" s="71"/>
       <c r="I73" s="46"/>
       <c r="J73" s="46"/>
       <c r="K73" s="46"/>
@@ -6128,22 +5284,22 @@
       <c r="AA73" s="35"/>
     </row>
     <row r="74" spans="1:27" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A74" s="109">
+      <c r="A74" s="106">
         <v>165</v>
       </c>
       <c r="B74" s="44"/>
-      <c r="C74" s="101" t="s">
+      <c r="C74" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="D74" s="107" t="s">
+      <c r="D74" s="104" t="s">
         <v>222</v>
       </c>
-      <c r="E74" s="104"/>
-      <c r="F74" s="98" t="s">
+      <c r="E74" s="101"/>
+      <c r="F74" s="95" t="s">
         <v>279</v>
       </c>
       <c r="G74" s="48"/>
-      <c r="H74" s="75"/>
+      <c r="H74" s="73"/>
       <c r="I74" s="48"/>
       <c r="J74" s="48"/>
       <c r="K74" s="48"/>
@@ -6165,26 +5321,26 @@
       <c r="AA74" s="35"/>
     </row>
     <row r="75" spans="1:27" s="1" customFormat="1" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="111">
+      <c r="A75" s="108">
         <v>166</v>
       </c>
       <c r="B75" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="C75" s="102" t="s">
+      <c r="C75" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="D75" s="108" t="s">
+      <c r="D75" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="E75" s="105" t="s">
+      <c r="E75" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="F75" s="99" t="s">
+      <c r="F75" s="96" t="s">
         <v>279</v>
       </c>
       <c r="G75" s="55"/>
-      <c r="H75" s="79"/>
+      <c r="H75" s="77"/>
       <c r="I75" s="55"/>
       <c r="J75" s="55"/>
       <c r="K75" s="55"/>
@@ -6218,13 +5374,13 @@
       <c r="D76" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="82" t="s">
+      <c r="E76" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="F76" s="85"/>
+      <c r="F76" s="82"/>
       <c r="G76" s="53"/>
-      <c r="H76" s="71" t="s">
-        <v>360</v>
+      <c r="H76" s="69" t="s">
+        <v>357</v>
       </c>
       <c r="I76" s="53"/>
       <c r="J76" s="53"/>
@@ -6250,9 +5406,9 @@
       <c r="E77" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="86"/>
+      <c r="F77" s="83"/>
       <c r="G77" s="46"/>
-      <c r="H77" s="73"/>
+      <c r="H77" s="71"/>
       <c r="I77" s="46"/>
       <c r="J77" s="46"/>
       <c r="K77" s="46"/>
@@ -6277,9 +5433,9 @@
       <c r="E78" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F78" s="86"/>
+      <c r="F78" s="83"/>
       <c r="G78" s="46"/>
-      <c r="H78" s="73"/>
+      <c r="H78" s="71"/>
       <c r="I78" s="46"/>
       <c r="J78" s="46"/>
       <c r="K78" s="46"/>
@@ -6302,13 +5458,13 @@
         <v>254</v>
       </c>
       <c r="E79" s="27"/>
-      <c r="F79" s="86"/>
+      <c r="F79" s="83"/>
       <c r="G79" s="46"/>
-      <c r="H79" s="73"/>
+      <c r="H79" s="71"/>
       <c r="I79" s="46"/>
       <c r="J79" s="46"/>
       <c r="K79" s="46" t="s">
-        <v>451</v>
+        <v>380</v>
       </c>
       <c r="L79" s="46"/>
       <c r="M79" s="46"/>
@@ -6331,10 +5487,10 @@
       <c r="E80" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F80" s="90"/>
+      <c r="F80" s="87"/>
       <c r="G80" s="46"/>
-      <c r="H80" s="73" t="s">
-        <v>363</v>
+      <c r="H80" s="71" t="s">
+        <v>360</v>
       </c>
       <c r="I80" s="46"/>
       <c r="J80" s="46"/>
@@ -6360,10 +5516,10 @@
       <c r="E81" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="F81" s="86"/>
+      <c r="F81" s="83"/>
       <c r="G81" s="46"/>
-      <c r="H81" s="73" t="s">
-        <v>359</v>
+      <c r="H81" s="71" t="s">
+        <v>356</v>
       </c>
       <c r="I81" s="46"/>
       <c r="J81" s="46"/>
@@ -6389,9 +5545,9 @@
       <c r="E82" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="F82" s="86"/>
+      <c r="F82" s="83"/>
       <c r="G82" s="46"/>
-      <c r="H82" s="73"/>
+      <c r="H82" s="71"/>
       <c r="I82" s="46"/>
       <c r="J82" s="46"/>
       <c r="K82" s="46"/>
@@ -6414,9 +5570,9 @@
         <v>266</v>
       </c>
       <c r="E83" s="27"/>
-      <c r="F83" s="86"/>
+      <c r="F83" s="83"/>
       <c r="G83" s="46"/>
-      <c r="H83" s="73"/>
+      <c r="H83" s="71"/>
       <c r="I83" s="46"/>
       <c r="J83" s="46"/>
       <c r="K83" s="46"/>
@@ -6439,9 +5595,9 @@
         <v>268</v>
       </c>
       <c r="E84" s="27"/>
-      <c r="F84" s="86"/>
+      <c r="F84" s="83"/>
       <c r="G84" s="46"/>
-      <c r="H84" s="73"/>
+      <c r="H84" s="71"/>
       <c r="I84" s="46"/>
       <c r="J84" s="46"/>
       <c r="K84" s="46"/>
@@ -6451,7 +5607,7 @@
       <c r="O84" s="46"/>
     </row>
     <row r="85" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A85" s="110">
+      <c r="A85" s="107">
         <v>176</v>
       </c>
       <c r="B85" s="38" t="s">
@@ -6461,12 +5617,12 @@
       <c r="D85" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="E85" s="83" t="s">
+      <c r="E85" s="80" t="s">
         <v>250</v>
       </c>
-      <c r="F85" s="95"/>
+      <c r="F85" s="92"/>
       <c r="G85" s="56"/>
-      <c r="H85" s="80"/>
+      <c r="H85" s="78"/>
       <c r="I85" s="56"/>
       <c r="J85" s="56"/>
       <c r="K85" s="56"/>
@@ -6482,18 +5638,18 @@
       <c r="B86" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="C86" s="102" t="s">
+      <c r="C86" s="99" t="s">
         <v>272</v>
       </c>
-      <c r="D86" s="108" t="s">
+      <c r="D86" s="105" t="s">
         <v>273</v>
       </c>
-      <c r="E86" s="105" t="s">
+      <c r="E86" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="F86" s="99"/>
+      <c r="F86" s="96"/>
       <c r="G86" s="55"/>
-      <c r="H86" s="79"/>
+      <c r="H86" s="77"/>
       <c r="I86" s="55"/>
       <c r="J86" s="55"/>
       <c r="K86" s="55"/>
@@ -6503,7 +5659,7 @@
       <c r="O86" s="55"/>
     </row>
     <row r="87" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A87" s="110">
+      <c r="A87" s="107">
         <v>178</v>
       </c>
       <c r="B87" s="38" t="s">
@@ -6515,12 +5671,12 @@
       <c r="D87" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="E87" s="83" t="s">
+      <c r="E87" s="80" t="s">
         <v>281</v>
       </c>
-      <c r="F87" s="95"/>
+      <c r="F87" s="92"/>
       <c r="G87" s="56"/>
-      <c r="H87" s="80"/>
+      <c r="H87" s="78"/>
       <c r="I87" s="56"/>
       <c r="J87" s="56"/>
       <c r="K87" s="56"/>
@@ -6542,12 +5698,12 @@
       <c r="D88" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="E88" s="106" t="s">
+      <c r="E88" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="F88" s="100"/>
+      <c r="F88" s="97"/>
       <c r="G88" s="54"/>
-      <c r="H88" s="78"/>
+      <c r="H88" s="76"/>
       <c r="I88" s="54"/>
       <c r="J88" s="54"/>
       <c r="K88" s="54"/>
@@ -6570,9 +5726,9 @@
         <v>307</v>
       </c>
       <c r="E89" s="27"/>
-      <c r="F89" s="86"/>
+      <c r="F89" s="83"/>
       <c r="G89" s="46"/>
-      <c r="H89" s="73"/>
+      <c r="H89" s="71"/>
       <c r="I89" s="46"/>
       <c r="J89" s="46"/>
       <c r="K89" s="46"/>
@@ -6597,9 +5753,9 @@
       <c r="E90" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="F90" s="90"/>
+      <c r="F90" s="87"/>
       <c r="G90" s="46"/>
-      <c r="H90" s="73"/>
+      <c r="H90" s="71"/>
       <c r="I90" s="46"/>
       <c r="J90" s="46"/>
       <c r="K90" s="46"/>
@@ -6622,9 +5778,9 @@
         <v>308</v>
       </c>
       <c r="E91" s="27"/>
-      <c r="F91" s="86"/>
+      <c r="F91" s="83"/>
       <c r="G91" s="46"/>
-      <c r="H91" s="73"/>
+      <c r="H91" s="71"/>
       <c r="I91" s="46"/>
       <c r="J91" s="46"/>
       <c r="K91" s="46"/>
@@ -6649,9 +5805,9 @@
       <c r="E92" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="F92" s="86"/>
+      <c r="F92" s="83"/>
       <c r="G92" s="46"/>
-      <c r="H92" s="73"/>
+      <c r="H92" s="71"/>
       <c r="I92" s="46"/>
       <c r="J92" s="46"/>
       <c r="K92" s="46"/>
@@ -6676,9 +5832,9 @@
       <c r="E93" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F93" s="86"/>
+      <c r="F93" s="83"/>
       <c r="G93" s="46"/>
-      <c r="H93" s="73"/>
+      <c r="H93" s="71"/>
       <c r="I93" s="46"/>
       <c r="J93" s="46"/>
       <c r="K93" s="46"/>
@@ -6703,9 +5859,9 @@
       <c r="E94" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="F94" s="86"/>
+      <c r="F94" s="83"/>
       <c r="G94" s="46"/>
-      <c r="H94" s="73"/>
+      <c r="H94" s="71"/>
       <c r="I94" s="46"/>
       <c r="J94" s="46"/>
       <c r="K94" s="46"/>
@@ -6727,11 +5883,11 @@
       <c r="D95" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E95" s="83"/>
-      <c r="F95" s="95"/>
+      <c r="E95" s="80"/>
+      <c r="F95" s="92"/>
       <c r="G95" s="56"/>
-      <c r="H95" s="73" t="s">
-        <v>363</v>
+      <c r="H95" s="71" t="s">
+        <v>360</v>
       </c>
       <c r="I95" s="46"/>
       <c r="J95" s="46"/>
@@ -6755,14 +5911,14 @@
         <v>312</v>
       </c>
       <c r="E96" s="27"/>
-      <c r="F96" s="86"/>
+      <c r="F96" s="83"/>
       <c r="G96" s="46"/>
-      <c r="H96" s="73"/>
+      <c r="H96" s="71"/>
       <c r="I96" s="46"/>
       <c r="J96" s="46"/>
       <c r="K96" s="46"/>
       <c r="L96" s="46" t="s">
-        <v>453</v>
+        <v>382</v>
       </c>
       <c r="M96" s="46"/>
       <c r="N96" s="46"/>
@@ -6782,9 +5938,9 @@
         <v>331</v>
       </c>
       <c r="E97" s="27"/>
-      <c r="F97" s="90"/>
+      <c r="F97" s="87"/>
       <c r="G97" s="46"/>
-      <c r="H97" s="73"/>
+      <c r="H97" s="71"/>
       <c r="I97" s="46"/>
       <c r="J97" s="46"/>
       <c r="K97" s="46"/>
@@ -6807,9 +5963,9 @@
         <v>332</v>
       </c>
       <c r="E98" s="27"/>
-      <c r="F98" s="86"/>
+      <c r="F98" s="83"/>
       <c r="G98" s="46"/>
-      <c r="H98" s="73"/>
+      <c r="H98" s="71"/>
       <c r="I98" s="46"/>
       <c r="J98" s="46"/>
       <c r="K98" s="46"/>
@@ -6832,9 +5988,9 @@
         <v>337</v>
       </c>
       <c r="E99" s="27"/>
-      <c r="F99" s="86"/>
+      <c r="F99" s="83"/>
       <c r="G99" s="46"/>
-      <c r="H99" s="73"/>
+      <c r="H99" s="71"/>
       <c r="I99" s="46"/>
       <c r="J99" s="46"/>
       <c r="K99" s="46"/>
@@ -6857,9 +6013,9 @@
         <v>338</v>
       </c>
       <c r="E100" s="27"/>
-      <c r="F100" s="86"/>
+      <c r="F100" s="83"/>
       <c r="G100" s="46"/>
-      <c r="H100" s="73"/>
+      <c r="H100" s="71"/>
       <c r="I100" s="46"/>
       <c r="J100" s="46"/>
       <c r="K100" s="46"/>
@@ -6882,9 +6038,9 @@
         <v>341</v>
       </c>
       <c r="E101" s="27"/>
-      <c r="F101" s="86"/>
+      <c r="F101" s="83"/>
       <c r="G101" s="46"/>
-      <c r="H101" s="73"/>
+      <c r="H101" s="71"/>
       <c r="I101" s="46"/>
       <c r="J101" s="46"/>
       <c r="K101" s="46"/>
@@ -6893,7 +6049,7 @@
         <v>341</v>
       </c>
       <c r="N101" s="46" t="s">
-        <v>491</v>
+        <v>389</v>
       </c>
       <c r="O101" s="46"/>
     </row>
@@ -6910,10 +6066,10 @@
       <c r="D102" s="62" t="s">
         <v>342</v>
       </c>
-      <c r="E102" s="106"/>
-      <c r="F102" s="100"/>
+      <c r="E102" s="103"/>
+      <c r="F102" s="97"/>
       <c r="G102" s="54"/>
-      <c r="H102" s="78"/>
+      <c r="H102" s="76"/>
       <c r="I102" s="54"/>
       <c r="J102" s="54"/>
       <c r="K102" s="54"/>
@@ -6922,1048 +6078,8 @@
       <c r="N102" s="54"/>
       <c r="O102" s="54"/>
     </row>
-    <row r="103" spans="1:15" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="58">
-        <v>194</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="C103" s="60" t="s">
-        <v>355</v>
-      </c>
-      <c r="D103" s="62"/>
-      <c r="E103" s="106"/>
-      <c r="F103" s="100"/>
-      <c r="G103" s="54" t="s">
-        <v>358</v>
-      </c>
-      <c r="H103" s="78"/>
-      <c r="I103" s="54"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="54"/>
-      <c r="L103" s="54"/>
-      <c r="M103" s="54"/>
-      <c r="N103" s="54"/>
-      <c r="O103" s="54"/>
-    </row>
-    <row r="104" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
-        <v>195</v>
-      </c>
-      <c r="B104" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="C104" s="59" t="s">
-        <v>364</v>
-      </c>
-      <c r="D104" s="61"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="53"/>
-      <c r="H104" s="67" t="s">
-        <v>366</v>
-      </c>
-      <c r="I104" s="61"/>
-      <c r="J104" s="61"/>
-      <c r="K104" s="61"/>
-      <c r="L104" s="61"/>
-      <c r="M104" s="61"/>
-      <c r="N104" s="61"/>
-      <c r="O104" s="61"/>
-    </row>
-    <row r="105" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="5">
-        <v>196</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="D105" s="19"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="86"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19"/>
-      <c r="L105" s="19"/>
-      <c r="M105" s="19"/>
-      <c r="N105" s="19"/>
-      <c r="O105" s="19"/>
-    </row>
-    <row r="106" spans="1:15" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="36">
-        <v>197</v>
-      </c>
-      <c r="B106" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="C106" s="64" t="s">
-        <v>368</v>
-      </c>
-      <c r="D106" s="63"/>
-      <c r="E106" s="83" t="s">
-        <v>373</v>
-      </c>
-      <c r="F106" s="93"/>
-      <c r="G106" s="56"/>
-      <c r="H106" s="81" t="s">
-        <v>372</v>
-      </c>
-      <c r="I106" s="63"/>
-      <c r="J106" s="63"/>
-      <c r="K106" s="63"/>
-      <c r="L106" s="63"/>
-      <c r="M106" s="63"/>
-      <c r="N106" s="63"/>
-      <c r="O106" s="63"/>
-    </row>
-    <row r="107" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
-        <v>198</v>
-      </c>
-      <c r="B107" s="37" t="s">
-        <v>401</v>
-      </c>
-      <c r="C107" s="59" t="s">
-        <v>381</v>
-      </c>
-      <c r="D107" s="61"/>
-      <c r="E107" s="82" t="s">
-        <v>402</v>
-      </c>
-      <c r="F107" s="85"/>
-      <c r="G107" s="53"/>
-      <c r="H107" s="67"/>
-      <c r="I107" s="61" t="s">
-        <v>382</v>
-      </c>
-      <c r="J107" s="61"/>
-      <c r="K107" s="61"/>
-      <c r="L107" s="61"/>
-      <c r="M107" s="61"/>
-      <c r="N107" s="61" t="s">
-        <v>500</v>
-      </c>
-      <c r="O107" s="61"/>
-    </row>
-    <row r="108" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A108" s="5">
-        <v>199</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="D108" s="19"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="86"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="72"/>
-      <c r="I108" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="J108" s="19"/>
-      <c r="K108" s="19"/>
-      <c r="L108" s="19"/>
-      <c r="M108" s="19"/>
-      <c r="N108" s="19"/>
-      <c r="O108" s="19"/>
-    </row>
-    <row r="109" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="5">
-        <v>201</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="D109" s="19"/>
-      <c r="E109" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="F109" s="86"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="72"/>
-      <c r="I109" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="J109" s="19"/>
-      <c r="K109" s="19"/>
-      <c r="L109" s="19"/>
-      <c r="M109" s="19"/>
-      <c r="N109" s="19"/>
-      <c r="O109" s="19"/>
-    </row>
-    <row r="110" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="5">
-        <v>202</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="D110" s="19"/>
-      <c r="E110" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F110" s="86"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="72"/>
-      <c r="I110" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="J110" s="19"/>
-      <c r="K110" s="19"/>
-      <c r="L110" s="19"/>
-      <c r="M110" s="19"/>
-      <c r="N110" s="19"/>
-      <c r="O110" s="19"/>
-    </row>
-    <row r="111" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="5">
-        <v>203</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="D111" s="19"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="86"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="72"/>
-      <c r="I111" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="J111" s="19"/>
-      <c r="K111" s="19"/>
-      <c r="L111" s="19"/>
-      <c r="M111" s="19"/>
-      <c r="N111" s="19"/>
-      <c r="O111" s="19"/>
-    </row>
-    <row r="112" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="5">
-        <v>204</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="D112" s="19"/>
-      <c r="E112" s="27" t="s">
-        <v>472</v>
-      </c>
-      <c r="F112" s="86"/>
-      <c r="G112" s="46"/>
-      <c r="H112" s="72"/>
-      <c r="I112" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="J112" s="19"/>
-      <c r="K112" s="19"/>
-      <c r="L112" s="19"/>
-      <c r="M112" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="N112" s="19"/>
-      <c r="O112" s="19"/>
-    </row>
-    <row r="113" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="5">
-        <v>205</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="D113" s="19"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="86"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="72"/>
-      <c r="I113" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="J113" s="19"/>
-      <c r="K113" s="19"/>
-      <c r="L113" s="19"/>
-      <c r="M113" s="19"/>
-      <c r="N113" s="19"/>
-      <c r="O113" s="19"/>
-    </row>
-    <row r="114" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="5">
-        <v>206</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="D114" s="19"/>
-      <c r="E114" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="F114" s="86"/>
-      <c r="G114" s="46"/>
-      <c r="H114" s="72"/>
-      <c r="I114" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="J114" s="19"/>
-      <c r="K114" s="19"/>
-      <c r="L114" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="M114" s="19"/>
-      <c r="N114" s="19"/>
-      <c r="O114" s="19"/>
-    </row>
-    <row r="115" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A115" s="5">
-        <v>207</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="D115" s="19"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="86"/>
-      <c r="G115" s="46"/>
-      <c r="H115" s="72"/>
-      <c r="I115" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="J115" s="19"/>
-      <c r="K115" s="19"/>
-      <c r="L115" s="19"/>
-      <c r="M115" s="19"/>
-      <c r="N115" s="19"/>
-      <c r="O115" s="19"/>
-    </row>
-    <row r="116" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A116" s="5">
-        <v>208</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="D116" s="19"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="86"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="72"/>
-      <c r="I116" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="J116" s="19"/>
-      <c r="K116" s="19"/>
-      <c r="L116" s="19"/>
-      <c r="M116" s="19"/>
-      <c r="N116" s="19"/>
-      <c r="O116" s="19"/>
-    </row>
-    <row r="117" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="5">
-        <v>209</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="D117" s="19"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="93"/>
-      <c r="G117" s="56"/>
-      <c r="H117" s="81"/>
-      <c r="I117" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="J117" s="19"/>
-      <c r="K117" s="19"/>
-      <c r="L117" s="19"/>
-      <c r="M117" s="19"/>
-      <c r="N117" s="19"/>
-      <c r="O117" s="19"/>
-    </row>
-    <row r="118" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="5">
-        <v>210</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="D118" s="19"/>
-      <c r="E118" s="83"/>
-      <c r="F118" s="93"/>
-      <c r="G118" s="56"/>
-      <c r="H118" s="81"/>
-      <c r="I118" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19"/>
-      <c r="L118" s="19"/>
-      <c r="M118" s="19"/>
-      <c r="N118" s="19" t="s">
-        <v>506</v>
-      </c>
-      <c r="O118" s="19"/>
-    </row>
-    <row r="119" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="36">
-        <v>211</v>
-      </c>
-      <c r="B119" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="C119" s="64" t="s">
-        <v>400</v>
-      </c>
-      <c r="D119" s="63"/>
-      <c r="E119" s="83"/>
-      <c r="F119" s="93"/>
-      <c r="G119" s="56"/>
-      <c r="H119" s="81"/>
-      <c r="I119" s="63" t="s">
-        <v>421</v>
-      </c>
-      <c r="J119" s="63"/>
-      <c r="K119" s="63"/>
-      <c r="L119" s="63"/>
-      <c r="M119" s="63"/>
-      <c r="N119" s="63"/>
-      <c r="O119" s="63"/>
-    </row>
-    <row r="120" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="36">
-        <v>212</v>
-      </c>
-      <c r="B120" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="C120" s="64" t="s">
-        <v>422</v>
-      </c>
-      <c r="D120" s="63"/>
-      <c r="E120" s="83"/>
-      <c r="F120" s="93"/>
-      <c r="G120" s="56"/>
-      <c r="H120" s="81"/>
-      <c r="I120" s="63" t="s">
-        <v>425</v>
-      </c>
-      <c r="J120" s="63"/>
-      <c r="K120" s="63"/>
-      <c r="L120" s="63"/>
-      <c r="M120" s="63"/>
-      <c r="N120" s="63"/>
-      <c r="O120" s="63"/>
-    </row>
-    <row r="121" spans="1:15" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A121" s="36">
-        <v>213</v>
-      </c>
-      <c r="B121" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="C121" s="64" t="s">
-        <v>423</v>
-      </c>
-      <c r="D121" s="63"/>
-      <c r="E121" s="83"/>
-      <c r="F121" s="93"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="81"/>
-      <c r="I121" s="63" t="s">
-        <v>426</v>
-      </c>
-      <c r="J121" s="63"/>
-      <c r="K121" s="63"/>
-      <c r="L121" s="63"/>
-      <c r="M121" s="63"/>
-      <c r="N121" s="63"/>
-      <c r="O121" s="63"/>
-    </row>
-    <row r="122" spans="1:15" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="36">
-        <v>214</v>
-      </c>
-      <c r="B122" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="C122" s="64" t="s">
-        <v>424</v>
-      </c>
-      <c r="D122" s="63"/>
-      <c r="E122" s="83"/>
-      <c r="F122" s="93"/>
-      <c r="G122" s="56"/>
-      <c r="H122" s="81"/>
-      <c r="I122" s="63" t="s">
-        <v>427</v>
-      </c>
-      <c r="J122" s="63"/>
-      <c r="K122" s="63"/>
-      <c r="L122" s="63"/>
-      <c r="M122" s="63"/>
-      <c r="N122" s="63"/>
-      <c r="O122" s="63"/>
-    </row>
-    <row r="123" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
-        <v>215</v>
-      </c>
-      <c r="B123" s="37" t="s">
-        <v>446</v>
-      </c>
-      <c r="C123" s="59" t="s">
-        <v>443</v>
-      </c>
-      <c r="D123" s="61"/>
-      <c r="E123" s="82" t="s">
-        <v>445</v>
-      </c>
-      <c r="F123" s="85"/>
-      <c r="G123" s="53"/>
-      <c r="H123" s="67"/>
-      <c r="I123" s="61"/>
-      <c r="J123" s="61"/>
-      <c r="K123" s="61" t="s">
-        <v>444</v>
-      </c>
-      <c r="L123" s="61"/>
-      <c r="M123" s="61"/>
-      <c r="N123" s="61"/>
-      <c r="O123" s="61"/>
-    </row>
-    <row r="124" spans="1:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="58">
-        <v>216</v>
-      </c>
-      <c r="B124" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="C124" s="60" t="s">
-        <v>447</v>
-      </c>
-      <c r="D124" s="62"/>
-      <c r="E124" s="106" t="s">
-        <v>448</v>
-      </c>
-      <c r="F124" s="100"/>
-      <c r="G124" s="54"/>
-      <c r="H124" s="68"/>
-      <c r="I124" s="62"/>
-      <c r="J124" s="62"/>
-      <c r="K124" s="62" t="s">
-        <v>449</v>
-      </c>
-      <c r="L124" s="62"/>
-      <c r="M124" s="62"/>
-      <c r="N124" s="62"/>
-      <c r="O124" s="62"/>
-    </row>
-    <row r="125" spans="1:15" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="112">
-        <v>218</v>
-      </c>
-      <c r="B125" s="113" t="s">
-        <v>455</v>
-      </c>
-      <c r="C125" s="114" t="s">
-        <v>456</v>
-      </c>
-      <c r="D125" s="115"/>
-      <c r="E125" s="116"/>
-      <c r="F125" s="117"/>
-      <c r="G125" s="118"/>
-      <c r="H125" s="119"/>
-      <c r="I125" s="115"/>
-      <c r="J125" s="115"/>
-      <c r="K125" s="115"/>
-      <c r="L125" s="115" t="s">
-        <v>459</v>
-      </c>
-      <c r="M125" s="115"/>
-      <c r="N125" s="115"/>
-      <c r="O125" s="115"/>
-    </row>
-    <row r="126" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A126" s="120">
-        <v>220</v>
-      </c>
-      <c r="B126" s="121" t="s">
-        <v>462</v>
-      </c>
-      <c r="C126" s="122" t="s">
-        <v>461</v>
-      </c>
-      <c r="D126" s="123"/>
-      <c r="E126" s="124"/>
-      <c r="F126" s="125"/>
-      <c r="G126" s="126"/>
-      <c r="H126" s="127"/>
-      <c r="I126" s="123"/>
-      <c r="J126" s="123"/>
-      <c r="K126" s="123"/>
-      <c r="L126" s="123" t="s">
-        <v>468</v>
-      </c>
-      <c r="M126" s="123"/>
-      <c r="N126" s="123"/>
-      <c r="O126" s="123"/>
-    </row>
-    <row r="127" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A127" s="36">
-        <v>221</v>
-      </c>
-      <c r="B127" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="C127" s="64" t="s">
-        <v>463</v>
-      </c>
-      <c r="D127" s="63"/>
-      <c r="E127" s="83"/>
-      <c r="F127" s="93"/>
-      <c r="G127" s="56"/>
-      <c r="H127" s="81"/>
-      <c r="I127" s="63"/>
-      <c r="J127" s="63"/>
-      <c r="K127" s="63"/>
-      <c r="L127" s="63" t="s">
-        <v>469</v>
-      </c>
-      <c r="M127" s="63"/>
-      <c r="N127" s="63"/>
-      <c r="O127" s="63"/>
-    </row>
-    <row r="128" spans="1:15" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="58">
-        <v>222</v>
-      </c>
-      <c r="B128" s="20" t="s">
-        <v>467</v>
-      </c>
-      <c r="C128" s="60" t="s">
-        <v>465</v>
-      </c>
-      <c r="D128" s="62"/>
-      <c r="E128" s="106"/>
-      <c r="F128" s="100"/>
-      <c r="G128" s="54"/>
-      <c r="H128" s="68"/>
-      <c r="I128" s="62"/>
-      <c r="J128" s="62"/>
-      <c r="K128" s="62"/>
-      <c r="L128" s="62" t="s">
-        <v>466</v>
-      </c>
-      <c r="M128" s="62"/>
-      <c r="N128" s="62"/>
-      <c r="O128" s="62"/>
-    </row>
-    <row r="129" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A129" s="120">
-        <v>223</v>
-      </c>
-      <c r="B129" s="121" t="s">
-        <v>474</v>
-      </c>
-      <c r="C129" s="122" t="s">
-        <v>475</v>
-      </c>
-      <c r="D129" s="123"/>
-      <c r="E129" s="124"/>
-      <c r="F129" s="125"/>
-      <c r="G129" s="126"/>
-      <c r="H129" s="127"/>
-      <c r="I129" s="123"/>
-      <c r="J129" s="123"/>
-      <c r="K129" s="123"/>
-      <c r="L129" s="123"/>
-      <c r="M129" s="123" t="s">
-        <v>473</v>
-      </c>
-      <c r="N129" s="123"/>
-      <c r="O129" s="123"/>
-    </row>
-    <row r="130" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="36">
-        <v>224</v>
-      </c>
-      <c r="B130" s="38" t="s">
-        <v>478</v>
-      </c>
-      <c r="C130" s="64" t="s">
-        <v>477</v>
-      </c>
-      <c r="D130" s="63"/>
-      <c r="E130" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="F130" s="93"/>
-      <c r="G130" s="56"/>
-      <c r="H130" s="81"/>
-      <c r="I130" s="63"/>
-      <c r="J130" s="63"/>
-      <c r="K130" s="63"/>
-      <c r="L130" s="63"/>
-      <c r="M130" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="N130" s="63"/>
-      <c r="O130" s="63"/>
-    </row>
-    <row r="131" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A131" s="36">
-        <v>225</v>
-      </c>
-      <c r="B131" s="38" t="s">
-        <v>480</v>
-      </c>
-      <c r="C131" s="64" t="s">
-        <v>482</v>
-      </c>
-      <c r="D131" s="63"/>
-      <c r="E131" s="83" t="s">
-        <v>481</v>
-      </c>
-      <c r="F131" s="93"/>
-      <c r="G131" s="56"/>
-      <c r="H131" s="81"/>
-      <c r="I131" s="63"/>
-      <c r="J131" s="63"/>
-      <c r="K131" s="63"/>
-      <c r="L131" s="63"/>
-      <c r="M131" s="63" t="s">
-        <v>479</v>
-      </c>
-      <c r="N131" s="63"/>
-      <c r="O131" s="63"/>
-    </row>
-    <row r="132" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A132" s="36">
-        <v>226</v>
-      </c>
-      <c r="B132" s="38" t="s">
-        <v>484</v>
-      </c>
-      <c r="C132" s="64" t="s">
-        <v>487</v>
-      </c>
-      <c r="D132" s="63"/>
-      <c r="E132" s="83"/>
-      <c r="F132" s="93"/>
-      <c r="G132" s="56"/>
-      <c r="H132" s="81"/>
-      <c r="I132" s="63"/>
-      <c r="J132" s="63"/>
-      <c r="K132" s="63"/>
-      <c r="L132" s="63"/>
-      <c r="M132" s="63" t="s">
-        <v>483</v>
-      </c>
-      <c r="N132" s="63"/>
-      <c r="O132" s="63"/>
-    </row>
-    <row r="133" spans="1:15" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="36">
-        <v>227</v>
-      </c>
-      <c r="B133" s="38" t="s">
-        <v>486</v>
-      </c>
-      <c r="C133" s="64" t="s">
-        <v>488</v>
-      </c>
-      <c r="D133" s="63"/>
-      <c r="E133" s="83"/>
-      <c r="F133" s="93"/>
-      <c r="G133" s="56"/>
-      <c r="H133" s="81"/>
-      <c r="I133" s="63"/>
-      <c r="J133" s="63"/>
-      <c r="K133" s="63"/>
-      <c r="L133" s="63"/>
-      <c r="M133" s="63" t="s">
-        <v>485</v>
-      </c>
-      <c r="N133" s="63"/>
-      <c r="O133" s="63"/>
-    </row>
-    <row r="134" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A134" s="120">
-        <v>229</v>
-      </c>
-      <c r="B134" s="121" t="s">
-        <v>493</v>
-      </c>
-      <c r="C134" s="122" t="s">
-        <v>494</v>
-      </c>
-      <c r="D134" s="123"/>
-      <c r="E134" s="124"/>
-      <c r="F134" s="125"/>
-      <c r="G134" s="126"/>
-      <c r="H134" s="127"/>
-      <c r="I134" s="123"/>
-      <c r="J134" s="123"/>
-      <c r="K134" s="123"/>
-      <c r="L134" s="123"/>
-      <c r="M134" s="123"/>
-      <c r="N134" s="123" t="s">
-        <v>492</v>
-      </c>
-      <c r="O134" s="123"/>
-    </row>
-    <row r="135" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="36">
-        <v>230</v>
-      </c>
-      <c r="B135" s="38" t="s">
-        <v>495</v>
-      </c>
-      <c r="C135" s="64" t="s">
-        <v>496</v>
-      </c>
-      <c r="D135" s="63"/>
-      <c r="E135" s="83"/>
-      <c r="F135" s="93"/>
-      <c r="G135" s="56"/>
-      <c r="H135" s="81"/>
-      <c r="I135" s="63"/>
-      <c r="J135" s="63"/>
-      <c r="K135" s="63"/>
-      <c r="L135" s="63"/>
-      <c r="M135" s="63"/>
-      <c r="N135" s="63" t="s">
-        <v>497</v>
-      </c>
-      <c r="O135" s="63"/>
-    </row>
-    <row r="136" spans="1:15" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="58">
-        <v>231</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="C136" s="60" t="s">
-        <v>499</v>
-      </c>
-      <c r="D136" s="62"/>
-      <c r="E136" s="106"/>
-      <c r="F136" s="100"/>
-      <c r="G136" s="54"/>
-      <c r="H136" s="68"/>
-      <c r="I136" s="62"/>
-      <c r="J136" s="62"/>
-      <c r="K136" s="62"/>
-      <c r="L136" s="62"/>
-      <c r="M136" s="62"/>
-      <c r="N136" s="62" t="s">
-        <v>501</v>
-      </c>
-      <c r="O136" s="62"/>
-    </row>
-    <row r="137" spans="1:15" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="58">
-        <v>232</v>
-      </c>
-      <c r="B137" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="C137" s="60" t="s">
-        <v>504</v>
-      </c>
-      <c r="D137" s="62"/>
-      <c r="E137" s="106" t="s">
-        <v>505</v>
-      </c>
-      <c r="F137" s="100"/>
-      <c r="G137" s="54"/>
-      <c r="H137" s="68"/>
-      <c r="I137" s="62"/>
-      <c r="J137" s="62"/>
-      <c r="K137" s="62"/>
-      <c r="L137" s="62"/>
-      <c r="M137" s="62"/>
-      <c r="N137" s="62" t="s">
-        <v>502</v>
-      </c>
-      <c r="O137" s="62"/>
-    </row>
-    <row r="138" spans="1:15" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A138" s="120">
-        <v>233</v>
-      </c>
-      <c r="B138" s="121" t="s">
-        <v>517</v>
-      </c>
-      <c r="C138" s="122" t="s">
-        <v>513</v>
-      </c>
-      <c r="D138" s="123"/>
-      <c r="E138" s="124" t="s">
-        <v>507</v>
-      </c>
-      <c r="F138" s="125"/>
-      <c r="G138" s="126"/>
-      <c r="H138" s="127"/>
-      <c r="I138" s="123"/>
-      <c r="J138" s="123"/>
-      <c r="K138" s="123"/>
-      <c r="L138" s="123"/>
-      <c r="M138" s="123"/>
-      <c r="N138" s="123" t="s">
-        <v>518</v>
-      </c>
-      <c r="O138" s="123"/>
-    </row>
-    <row r="139" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="36">
-        <v>234</v>
-      </c>
-      <c r="B139" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="C139" s="64" t="s">
-        <v>514</v>
-      </c>
-      <c r="D139" s="63"/>
-      <c r="E139" s="83" t="s">
-        <v>242</v>
-      </c>
-      <c r="F139" s="93"/>
-      <c r="G139" s="56"/>
-      <c r="H139" s="81"/>
-      <c r="I139" s="63"/>
-      <c r="J139" s="63"/>
-      <c r="K139" s="63"/>
-      <c r="L139" s="63"/>
-      <c r="M139" s="63"/>
-      <c r="N139" s="63" t="s">
-        <v>508</v>
-      </c>
-      <c r="O139" s="63"/>
-    </row>
-    <row r="140" spans="1:15" ht="144" x14ac:dyDescent="0.3">
-      <c r="A140" s="36">
-        <v>235</v>
-      </c>
-      <c r="B140" s="38" t="s">
-        <v>520</v>
-      </c>
-      <c r="C140" s="64" t="s">
-        <v>515</v>
-      </c>
-      <c r="D140" s="63"/>
-      <c r="E140" s="83" t="s">
-        <v>510</v>
-      </c>
-      <c r="F140" s="93"/>
-      <c r="G140" s="56"/>
-      <c r="H140" s="81"/>
-      <c r="I140" s="63"/>
-      <c r="J140" s="63"/>
-      <c r="K140" s="63"/>
-      <c r="L140" s="63"/>
-      <c r="M140" s="63"/>
-      <c r="N140" s="63" t="s">
-        <v>509</v>
-      </c>
-      <c r="O140" s="63"/>
-    </row>
-    <row r="141" spans="1:15" ht="159" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="58">
-        <v>236</v>
-      </c>
-      <c r="B141" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="C141" s="60" t="s">
-        <v>516</v>
-      </c>
-      <c r="D141" s="62"/>
-      <c r="E141" s="106" t="s">
-        <v>512</v>
-      </c>
-      <c r="F141" s="100"/>
-      <c r="G141" s="54"/>
-      <c r="H141" s="68"/>
-      <c r="I141" s="62"/>
-      <c r="J141" s="62"/>
-      <c r="K141" s="62"/>
-      <c r="L141" s="62"/>
-      <c r="M141" s="62"/>
-      <c r="N141" s="62" t="s">
-        <v>511</v>
-      </c>
-      <c r="O141" s="62"/>
-    </row>
-    <row r="142" spans="1:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="58">
-        <v>237</v>
-      </c>
-      <c r="B142" s="20" t="s">
-        <v>528</v>
-      </c>
-      <c r="C142" s="60" t="s">
-        <v>529</v>
-      </c>
-      <c r="D142" s="62"/>
-      <c r="E142" s="106" t="s">
-        <v>527</v>
-      </c>
-      <c r="F142" s="100"/>
-      <c r="G142" s="54"/>
-      <c r="H142" s="68"/>
-      <c r="I142" s="62"/>
-      <c r="J142" s="62"/>
-      <c r="K142" s="62"/>
-      <c r="L142" s="62"/>
-      <c r="M142" s="62"/>
-      <c r="N142" s="62"/>
-      <c r="O142" s="62" t="s">
-        <v>526</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O142" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O102" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/tablaQA.xlsx
+++ b/tablaQA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB79529-8BE7-4913-8F47-883DCC2FEE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C620A9-7492-4E90-B8A9-D2A90425AEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Hoja1" sheetId="4" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intenciones!$A$1:$B$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intenciones!$A$1:$B$113</definedName>
   </definedNames>
   <calcPr calcId="150001"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="209">
   <si>
     <t>PREGUNTAS</t>
   </si>
@@ -292,16 +292,10 @@
     <t>puedo rectificar con cupon de pago</t>
   </si>
   <si>
-    <t>Si tienes un término de giro en trámite, **NO** debes seguir declarando el F29 (ya que el TG tiene fecha "hasta"). Si bien continuarán registrándose las anotaciones por no declarante, éstas se levantarán al momento de terminar el trámite.</t>
-  </si>
-  <si>
     <t>¿SI TENGO TERMINO DE GIRO EN TRAMITE DEBO SEGUIR DECLARANDO F29?</t>
   </si>
   <si>
     <t>¿CUANTAS VECES PUEDO POSTERGAR IVA?</t>
-  </si>
-  <si>
-    <t>Para conocer las rectificaciones del F29 que sólo se pueden realizar en la oficina del SII correspondiente al domicilio del contribuyente (**NO** por internet), ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_4066.htm).</t>
   </si>
   <si>
     <t>Preguntas Frecuentes</t>
@@ -543,9 +537,6 @@
     <t>La actualización del remanente del Crédito Fiscal IVA del mes anterior es automática (desde la aplicación del sitio web del SII, F29). Esta considera el remanente del mes anterior y lo actualiza por la UTM del mes de la declaracion de IVA. Para el remanente del mes, considera la UTM del mes de la declaración.  Para mayor información ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_1926.htm).</t>
   </si>
   <si>
-    <t>Recuerda que si tienes el beneficio de **postergación del pago de IVA**, podrás usarlo **en cada período** que se declare el IVA, es decir, en cada uno de los meses del año.  Para mayor información ingresa al siguiente [link](http://www.sii.cl/portales/reforma_tributaria/postergacioniva.html).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Respecto a las Boletas de Honorarios Electrónicas (BHE): 1) Si es emitida por el prestador del servicio y es la Empresa quien retiene la tasa del 10%, debe ser ésta quien declare y cancele, dentro de los primeros 12 días del mes siguiente, el total de los impuestos retenidos en un mes, en el código [151] del F29. 2) Si es emitida por el prestador del servicio a una persona natural (que no tiene Inicio de Actividades en Primera Categoría), la retención la efectuará el mismo emisor de la boleta, declarando el Impuesto como PPM (Pago Provisional Mensual) de Segunda Categoría, dentro de los 12 primeros días del mes siguiente. El total del PPM del período deberá registrarse en el F29, sección PPM, línea correspondiente a “2da. Categoría Art. 84, b) (tasa 10%)”, en el código [152].
 </t>
   </si>
@@ -683,6 +674,12 @@
   </si>
   <si>
     <t>E-IVA es una nueva aplicación móvil que permite de forma segura, fácil y gratuita validar y enviar tu Propuesta de declaración de F29. Para utilizarla debes instalar la aplicación en tu dispositivo móvil, la cual puedes descargar de forma gratuita, y además contar con RUT y clave del SII.</t>
+  </si>
+  <si>
+    <t>Recuerda que si tienes el beneficio de postergación del pago de IVA, podrás usarlo en cada período que se declare el IVA, es decir, en cada uno de los meses del año.  Para mayor información ingresa al siguiente [link](http://www.sii.cl/portales/reforma_tributaria/postergacioniva.html).</t>
+  </si>
+  <si>
+    <t>Si tienes un término de giro en trámite, NO debes seguir declarando el F29 (ya que el TG tiene fecha "hasta"). Si bien continuarán registrándose las anotaciones por no declarante, éstas se levantarán al momento de terminar el trámite.</t>
   </si>
 </sst>
 </file>
@@ -1223,13 +1220,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B107" sqref="B107"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1247,12 +1244,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1260,7 +1257,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1276,18 +1273,18 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1300,7 +1297,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -1308,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -1316,7 +1313,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1324,7 +1321,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1335,28 +1332,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1367,12 +1364,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1380,7 +1377,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -1388,7 +1385,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1396,66 +1393,66 @@
         <v>27</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="15" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="15" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="15" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -1463,68 +1460,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1540,7 +1537,7 @@
         <v>43</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1548,7 +1545,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1556,47 +1553,47 @@
         <v>45</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1604,7 +1601,7 @@
         <v>57</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -1612,7 +1609,7 @@
         <v>58</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1620,15 +1617,15 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1636,15 +1633,15 @@
         <v>60</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1652,7 +1649,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1660,31 +1657,31 @@
         <v>62</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1692,7 +1689,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1700,7 +1697,7 @@
         <v>63</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1708,15 +1705,15 @@
         <v>64</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -1724,55 +1721,55 @@
         <v>66</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -1780,15 +1777,15 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -1796,98 +1793,98 @@
         <v>68</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
         <v>69</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
         <v>73</v>
       </c>
@@ -1895,20 +1892,20 @@
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" s="15" customFormat="1" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="15" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1916,15 +1913,15 @@
         <v>76</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1932,31 +1929,31 @@
         <v>78</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1964,165 +1961,167 @@
         <v>57</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="12"/>
-      <c r="B94" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B102" s="4" t="s">
+    <row r="107" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="8" t="s">
-        <v>141</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2130,27 +2129,19 @@
         <v>140</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>132</v>
+      <c r="B113" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B111" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/tablaQA.xlsx
+++ b/tablaQA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C620A9-7492-4E90-B8A9-D2A90425AEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5664DAAE-346D-48AE-8ED0-B58A333388AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Hoja1" sheetId="4" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intenciones!$A$1:$B$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intenciones!$A$1:$B$106</definedName>
   </definedNames>
   <calcPr calcId="150001"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="194">
   <si>
     <t>PREGUNTAS</t>
   </si>
@@ -53,15 +53,6 @@
     <t xml:space="preserve">Si tienes dudas o dificultad en materias de los siguientes temas: Bienes Raíces, IVA, Inicio de Actividades, Renta u otro, ingresa al siguiente [link](http://www.sii.cl/ayudas/asistencia/3042-3045.html), donde deberás seleccionar una opción y aceptar las condiciones del servicio. </t>
   </si>
   <si>
-    <t>Ingresando al siguiente [link](http://www.sii.cl/normativa_legislacion/circulares/2018/indcir2018.htm) podrás encontrar las circulares emitidas por el SII.</t>
-  </si>
-  <si>
-    <t>Ingresando al siguiente [link](http://www.sii.cl/normativa_legislacion/resoluciones/2018/res_ind2018.htm) podrás encontrar las resoluciones emitidas por el SII.</t>
-  </si>
-  <si>
-    <t>Para modificar la clave y los datos de autentificación de tu cuenta **Mi SII** ingresa al siguiente [link](https://zeusr.sii.cl/cgi_AUT2000/ConfirmacionDeUso.cgi) con tu RUT y clave y confirma la **Cláusula de responsabilidad por el uso de la clave secreta**.</t>
-  </si>
-  <si>
     <t>¿Cuáles son los medios y lugares que existen para presentar el Formulario 29 de Declaración Mensual y Pago Simultáneo?</t>
   </si>
   <si>
@@ -93,24 +84,6 @@
   </si>
   <si>
     <t>que es el sii</t>
-  </si>
-  <si>
-    <t>tienen charlas educativas?</t>
-  </si>
-  <si>
-    <t>necesito las circulares</t>
-  </si>
-  <si>
-    <t>necesito valores antiguos de la uf</t>
-  </si>
-  <si>
-    <t>como conozco la jurisprudencia del sii?</t>
-  </si>
-  <si>
-    <t>necesito las resoluciones</t>
-  </si>
-  <si>
-    <t>¿Qué actividades están exentas del Impuesto al Valor Agregado (IVA)?</t>
   </si>
   <si>
     <t>¿el arriendo de una casa debe pagar impuestos?</t>
@@ -240,11 +213,6 @@
     <t>¿Cómo puede ser consultada la declaración de un Formulario 29 de Declaración Mensual y Pago Simultáneo realizada por otro contribuyente?</t>
   </si>
   <si>
-    <t>Incapacidad para pagar IVA
-Que puedo hacer si no tengo los medios económicos para pagar el IVA?
-Existe algun convenio para pagar el IVA fuera de plazo?</t>
-  </si>
-  <si>
     <t>¿Quiénes no pueden acceder al beneficio de declarar y pagar el Formulario 29 el día 20 de cada mes?</t>
   </si>
   <si>
@@ -301,23 +269,13 @@
     <t>Preguntas Frecuentes</t>
   </si>
   <si>
-    <t>Para contáctarnos a través de nuestra página web, haz click [aquí](http://www.sii.cl/ayudas/asistencia/3042-3045.html).</t>
-  </si>
-  <si>
     <t>Contacto Web</t>
   </si>
   <si>
-    <t>Si olvidaste la clave de acceso a tu cuenta **Mi SII**, para recuperarla ingresa al siguiente [link](https://zeusr.sii.cl/AUT2000/ClavesPerdidas/IngresoRUT.html) con tu RUT confirmando la **Cláusula de responsabilidad por el uso de la clave secreta**.</t>
-  </si>
-  <si>
     <t>Si al intentar pagar el F29, el sistema no te permite ingresar a la página del Banco, debes verificar que las ventanas emergentes **NO estén bloqueadas**. De ser así, deberás desbloquearlas.</t>
   </si>
   <si>
     <t>Si selecciono pago PEL y el sistema me arroja que seleccione pago PEC y se queda Pendiente de Anulación, que debo hacer?</t>
-  </si>
-  <si>
-    <t>Cuál es el significado de las letras que aparecen en la consulta integral del iva?
-me aparece una i en la consulta integral que significa</t>
   </si>
   <si>
     <t>tengo una factura por compras olvidada de declarar de hace un año. puedo recuperar ese crédito?</t>
@@ -358,40 +316,18 @@
     <t>Los teléfonos de la Mesa de Ayuda son el 22 395 1115 y el 22 395 1000 El horario de atención es: Lunes a Viernes: 08:00 a 20:00 hrs.- Sábado, Domingo y Festivos: 09:00 a 18:00 hrs.</t>
   </si>
   <si>
-    <t>La dirección nacional del SII se encuentra ubicada en Teatinos 120, Santiago. Ingresa al siguiente [link](http://www.sii.cl/ayudas/asistencia/3048-res-3049.html) para conocer las direcciones regionales, sus horarios de atención y los trámites a realizar en cada unas de ellas.</t>
-  </si>
-  <si>
     <t>Para ingresar felicitaciones o sugerencias ingrese al siguiente [link](https://zeus.sii.cl/dii_cgi/calidad/contactenos.cgi?tide_codigo=11&amp;opciones_tide=10o11).</t>
   </si>
   <si>
-    <t>Ingresando al siguiente [link](http://www.sii.cl/valores_y_fechas/index_valores_y_fechas.html) encontrarás detalles de mercado tales como el valor de la UF, del dólar, etc., del periodo que necesites.</t>
-  </si>
-  <si>
-    <t>Ingresando al siguiente [link](http://www.sii.cl/normativa_legislacion/jurisprudencia_y_tribunales.html) podrás conocer la Jurisprudencia y tribunales en relación al SII.</t>
-  </si>
-  <si>
-    <t>Ingresando al siguiente [link](http://www.sii.cl/normativa_legislacion/legislacion_tributaria.html) podrás conocer la Legislación Tributaria y los convenios internacionales.</t>
-  </si>
-  <si>
     <t>El pago de IVA por arriendo de inmuebles depende de si es: - Sin amoblar: estará exento del IVA. - Amoblado (incluidas las del verano): estará afecto a IVA, el cual es de cargo del arrendatario, pero es responsabilidad del arrendador recaudarlo y enterarlo en las arcas fiscales.</t>
   </si>
   <si>
-    <t xml:space="preserve">Revisa la información correspondiente a la compra y venta de activo fijo, accediendo a la circular correspondiente en el siguiente [link](http://www.sii.cl/documentos/circulares/2001/circu84.htm).
-</t>
-  </si>
-  <si>
     <t>Si al pagar el IVA, el cargo fue duplicado, considera que cuando el SII acepte tu Declaración F29 con sólo un cargo, el banco reversará o abonará el dinero cargado a tu cuenta, aproximadamente en una semana. Si pasado este plazo no se ha efectuado este abono, debes comunicarte directamente con el banco.</t>
   </si>
   <si>
     <t>Si cancelaste el IVA mediante Pago en Línea (PEL) o pago con convenio en Cuenta Corriente (PEC) y se hizo el cargo en tu cuenta bancaria pero no muestra el certificado solemne, debes esperar 48 horas para que el banco confirme la transacción al SII (conciliación), sólo en ese momento la declaración aparecerá "Aceptada" en la Consulta de Estado y se emitirá el **Certificado Solemne**.</t>
   </si>
   <si>
-    <t>Para ingresar a tu cuenta Mi SII ingresa al siguiente [link](https://zeusr.sii.cl//AUT2000/InicioAutenticacion/IngresoRUTClave.html?https://misiir.sii.cl/cgi_misii/siihome.cgi) con tu RUT y clave.</t>
-  </si>
-  <si>
-    <t>Para solicitar la clave de acceso a tu cuenta Mi SII ingresa al siguiente [link](https://zeusr.sii.cl/AUT2000/ObtenerClave/IngresoRUT.html) con tu RUT confirmando la Cláusula de responsabilidad por el uso de la clave secreta.</t>
-  </si>
-  <si>
     <t>Si al declarar (o rectificar) un F29 por internet el pago es rechazado por el banco, el contribuyente deberá completar nuevamente su declaración y así hacer efectivo su pago. Sólo en la medida en que se concrete dicho pago, la declaración se habrá ejecutado y tendrá validez.</t>
   </si>
   <si>
@@ -404,9 +340,6 @@
     <t>Si tienes dos o más declaraciones de IVA pendientes de pago, es necesario considerar pagar primero el periodo más atrasado, ya que las multas, intereses y reajustes son aplicados conforme a los periodos transcurridos, aumentando de esta manera los montos de dichas deudas.</t>
   </si>
   <si>
-    <t>El Cupón de Pago es el documento que se genera cuando se elige la opción de Pago por Caja, luego de ingresar y validar los datos de su F29 o 50 en Internet. Este documento debe ser pagado en alguna de las [instituciones recaudadoras autorizadas](http://www.sii.cl/preguntas_frecuentes/iva/001_030_6236.htm) para que sus datos se conviertan en declaración, hasta la fecha de vencimiento y por el monto exacto que aparece en el cupón.</t>
-  </si>
-  <si>
     <t>Si declaraste sin movimiento y dentro del plazo y aparece un monto a cancelar, debes revisar tu Registro de Compras y Ventas (RCV), ya que puedes tener movimientos que se están reflejando en dicho registro.</t>
   </si>
   <si>
@@ -416,21 +349,12 @@
     <t>La propuesta de declaración F29 está dirigida mayoritariamente a los contribuyentes afectos a IVA y, dependiendo de sus operaciones, podrá ofrecer todos sus códigos a declarar o parte de los mismos, estando disponible desde el periodo tributario agosto 2017 en adelante, tanto para declaraciones dentro o fuera de plazo.</t>
   </si>
   <si>
-    <t>La tasa de PPM es calculada en base a lo que establece el Art. 84 de la Ley de la Renta y a las instrucciones impartidas por el SII en sus Circulares N° 52 del 2014 y N° 16 de 1991. Sin embargo, puedes no utilizar el asistente e ingresar la tasa de PPM que consideres correct.Para mayor información ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/renta/001_002_0700.htm).</t>
-  </si>
-  <si>
     <t>No existe un tiempo definido (o plazo legal) que determine la aplicación del remanente de Crédito Fiscal cuando no existen ventas que generen Débito Fiscal.</t>
   </si>
   <si>
-    <t>Si necesitas rectificar un F29 por internet, pero el sistema no te lo permite, considera que:- La opción para rectificar (por internet) se encontrará disponible después de 48 horas desde que se realizó la declaración.- Si intentaste rectificar pero no se logró concretar el pago, el sistema se bloqueará por 48 horas, por lo cual será necesario esperar dicho plazo para intentar nuevamente.- Existen rectificaciones del F29 que sólo se pueden realizar en la oficina del SII correspondiente al domicilio del contribuyente. Revisa si este es tu caso a través del siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_4066.htm).</t>
-  </si>
-  <si>
     <t>Las rectificaciones NO se pueden realizar bajo la modalidad de "Pago por Caja". Esta opción sólo se encuentra habilitada para las declaraciones originales (primitivas).</t>
   </si>
   <si>
-    <t>Puedes revisar preguntas frecuentes haciendo click [aquí](http://www.sii.cl/preguntas_frecuentes/preguntasfrecuentes.htm).</t>
-  </si>
-  <si>
     <t>Las retenciones mensuales del 10% de una Boleta de Honorarios, efectuadas por las instituciones fiscales, semifiscales de administración autónoma, municipalidades, personas jurídicas en general y personas que obtengan rentas de la Primera Categoría de la Ley de la Renta, que estén obligados a llevar contabilidad, NO pueden ser declaradas anualmente, puesto que la normativa obliga a que sean declaradas dentro de los primeros 12 días del mes siguiente de haber efectuado la retención.</t>
   </si>
   <si>
@@ -438,9 +362,6 @@
   </si>
   <si>
     <t>El Formulario 29 (F29) corresponde a las declaraciones de carácter mensual de impuestos que, legalmente, deben ser retenidos y enterados en arcas fiscales, por ejemplo, el Impuesto al Valor Agregado (IVA) y los Pagos Provisionales Mensuales (PPM), entre otros.</t>
-  </si>
-  <si>
-    <t>legislacion tributaria?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Cuáles son las Instituciones Recaudadoras autorizadas para pagar por caja?
@@ -507,12 +428,6 @@
     <t>Conoce nuestras redes sociales ingresando a: - [Facebook](https://www.facebook.com/impuestosinternoschile/). - [Twitter](https://twitter.com/SII_Chile). - [Youtube](https://www.youtube.com/user/sii/).</t>
   </si>
   <si>
-    <t>El Servicio de Impuestos Interno (SII) es la institución estatal que se responsabiliza de administrar el sistema tributario interno, junto con facilitar y fiscalizar el cumplimiento de los contribuyentes.  Para mayor información sobre el SII ingresa al siguiente [link](http://www.sii.cl/sobre_el_sii/nuestro_servicio.htm).</t>
-  </si>
-  <si>
-    <t>Las declaraciones del Formulario 29 que son presentadas **fuera de plazo** generan **multas, reajustes e intereses** (incluso si no tiene movimientos o es "sin pago"). Para evitar esta situación, ten presente los plazos para realizar este trámite revisando el siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_1060.htm).  Para mayor información respecto a las [multas](http://www.sii.cl/preguntas_frecuentes/iva/001_030_1061.htm) e [intereses](http://www.sii.cl/preguntas_frecuentes/iva/001_030_0996.htm) asociados ingresa al link correspondiente.</t>
-  </si>
-  <si>
     <t>Respecto a las declaraciones sin movimiento:- Los contribuyentes de 1ª Categoría deben declarar obligatoriamente el Formulario 29 por todos los períodos tributarios, inclusive en aquellos en que no se tenga movimiento. - Los contribuyentes de 2ª Categoría no deben presentar declaraciones de IVA sin movimiento.</t>
   </si>
   <si>
@@ -520,99 +435,29 @@
   </si>
   <si>
     <t>Una declaración es sin pago cuando el casillero total a pagar  (código 91) es  igual a cero o vacío . A su vez, estas pueden ser: - Sin pago, con movimiento: aquellas declaraciones que presentan valores mayores que cero en sus códigos de impuestos. - Sin pago, sin movimiento:  aquellas declaraciones que presentan todos los códigos de impuestos en cero o vacío, excepto los códigos de identificación o de remanente.</t>
-  </si>
-  <si>
-    <t>Para solicitar la condonación de multas e intereses asociados a impuestos mensuales declarados en el F29, los contribuyentes, representantes o mandatarios, debidamente acreditados, deben presentar el [Formulario 2667](http://www.sii.cl/formularios/imagen/F2667.pdf).  Para mayor información le sugerimos revisar la Circular N°50 del 2016 en el siguiente [link](http://www.sii.cl/documentos/circulares/2016/circu50.pdf).</t>
-  </si>
-  <si>
-    <t>El giro de postergación del IVA vence 2 meses después a la fecha de vencimiento original. Esto quiere decir que podrás pagar el giro de postergación desde el momento en que se realiza la declaración de IVA dentro del plazo habitual hasta 2 meses después.  Para mayor información sobre la postergación de IVA, revisa el siguiente [link](http://www.sii.cl/portales/reforma_tributaria/postergacioniva.html).</t>
-  </si>
-  <si>
-    <t>Cuando el vencimiento del impuesto cae en día festivo, sábado o domingo, el vencimiento se aplaza al día hábil siguiente.  Revisa el calendario tributario ingresando al siguiente [link](https://misii.sii.cl/cgi_calendario/calendario.cgi).</t>
-  </si>
-  <si>
-    <t>Para conocer las instituciones recaudadoras autorizadas para pagar en caja (con Cupón de Pago impreso) ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_6236.htm).  Para mayor información sobre el pago por caja, pincha [aquí](http://www.sii.cl/preguntas_frecuentes/iva/arbol_imptos_f29_1038.htm).</t>
-  </si>
-  <si>
-    <t>La actualización del remanente del Crédito Fiscal IVA del mes anterior es automática (desde la aplicación del sitio web del SII, F29). Esta considera el remanente del mes anterior y lo actualiza por la UTM del mes de la declaracion de IVA. Para el remanente del mes, considera la UTM del mes de la declaración.  Para mayor información ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_1926.htm).</t>
   </si>
   <si>
     <t xml:space="preserve">Respecto a las Boletas de Honorarios Electrónicas (BHE): 1) Si es emitida por el prestador del servicio y es la Empresa quien retiene la tasa del 10%, debe ser ésta quien declare y cancele, dentro de los primeros 12 días del mes siguiente, el total de los impuestos retenidos en un mes, en el código [151] del F29. 2) Si es emitida por el prestador del servicio a una persona natural (que no tiene Inicio de Actividades en Primera Categoría), la retención la efectuará el mismo emisor de la boleta, declarando el Impuesto como PPM (Pago Provisional Mensual) de Segunda Categoría, dentro de los 12 primeros días del mes siguiente. El total del PPM del período deberá registrarse en el F29, sección PPM, línea correspondiente a “2da. Categoría Art. 84, b) (tasa 10%)”, en el código [152].
 </t>
   </si>
   <si>
-    <t>El SII móvil es una oficina móvil completamente equipada y con conectividad a Internet, que tiene como fin asistir a los contribuyentes que viven en zonas alejadas de los centros urbanos. Para mayor información, conocer los trámites a realizar y el calendario de visitas ingresa al siguiente [link](http://www.sii.cl/ayudas/asistencia/3048-3053.html).</t>
-  </si>
-  <si>
-    <t>Ingresa al siguiente [link](https://www4.sii.cl/sistemacharlasui/internet/#/public) para conocer las actividades de asistencia al constribuyente e inscribirte para participar. Todas las actividades son gratuitas</t>
-  </si>
-  <si>
     <t>Para conocer cuáles son los servicios gravados con IVA, ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_1229.htm).  Para conocer cuáles son las actividades exentas del pago de IVA, ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_1170.htm).  Para conocer cuáles son los elementos que determinan que una venta esté afecta al IVA, ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_1173.htm)</t>
   </si>
   <si>
-    <t>La Consulta Estado permite conocer el estado de tu declaración de IVA (F29). Aquí puedes ver las declaraciones vigentes, los intentos de declaración, los cupones de pago, el detalle de los formularios presentados, entre otros. Ingresa a través del siguiente [link](https://www4.sii.cl/rfiInternet/consulta/index.html#rfiSelFormularioPeriodo) o siguiendo la siguiente RUTa: "Servicios Online/ Impuestos Mensuales/ Consulta y seguimiento (F29 y F50) / Consultar estado de declaración".</t>
-  </si>
-  <si>
-    <t>La actualización del remanente del Crédito Fiscal IVA del mes anterior es automática (desde la aplicación del sitio web del SII, F29). Esta considera el remanente del mes anterior y lo actualiza por la UTM del mes de la declaracion de IVA. Para el remanente del mes, considera la UTM del mes de la declaración. Si la propuesta del F29 no arrastra el remanente del mes anterior, el contribuyente deberá informarlo a través de un formulario en pantalla.  Revisa cuáles son las situaciones en que no se arrastra el remanente en el siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_5146.htm).  Para mayor información ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_1926.htm).</t>
-  </si>
-  <si>
-    <t>Para obtener un certificado o una copia de la declaración de un Formulario 29 ingresa al siguiente [link](http://www.sii.cl/servicios_online/1042-3266.html).  También puedes obtenerlo a través de la RUTa: Servicios Online --&gt; Impuestos Mensuales, opción "Consulta y seguimiento (F29 y F50)**".  Para mayor información ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/renta/001_002_0500.htm).</t>
-  </si>
-  <si>
-    <t>Para presentar el Formulario 29 de Declaración Mensual por Internet, puedes hacerlo a través del Formulario Electrónico, o bien, mediante el envío del archivo con software (upload). Esta última opción, aplica para contribuyentes que poseen software de mercado que genera archivos con las declaraciones del Formulario 29, los cuales pueden ser subidos electrónicamente al sitio web del SII.  Para realizar tu declaración, ingresa [aquí](http://www.sii.cl/servicios_online/1042-.html), o bien, siguiendo la RUTa: Servicios Online/Impuestos Mensuales/Declaración mensual (F29).Para mayor información ingresa al siguiente [link](http://www.sii.cl/pagina/iva/guia_f29.htm#internet).</t>
-  </si>
-  <si>
-    <t>El plazo para presentar el F29 es hasta el día 12 del mes siguiente, salvo en los siguiente casos: - Si eres facturador electrónico (o emites boletas de honorarios electrónicas), declaradas y pagadas por internet: hasta el día 20. - Si no tienes movimientos (sin pago) y declaras por internet: hasta el día 28.  Si presentas el F29 fuera de plazo se generarán multas, reajuste e intereses. Para que esto no ocurra, revisa el Calendario Tributario ingresando al siguiente [link](https://misii.sii.cl/cgi_calendario/calendario.cgi).  Para mayor información ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_1060.htm).</t>
-  </si>
-  <si>
     <t>Recuerda que puedes retomar el ingreso de información en un Formulario 29, ya que los datos ingresados son almacenados en la opción "Guardar Datos". Cuando ingreses nuevamente al periodo tributario que estabas declarando, tendrás la posibilidad de utilizar los datos guardados, o bien, de ingresar una nueva declaración.</t>
   </si>
   <si>
-    <t>Los medios de pago habilitados para el pago de IVA son: - PEL: pago en línea con cargo a Tarjeta de Crédito emitidas en Chile o con cargo a Cuenta Corriente (o cuenta vista o chequera electrónica). - PEC: pago con Cuenta Corriente mediante mandato al banco. - Pago por Caja en [instituciones recaudadoras autorizadas](http://www.sii.cl/preguntas_frecuentes/iva/001_030_6236.htm) (requiere llevar cupón de pago impreso).  Recuerda que si tienes multas asociadas, las podrás pagar simultaneamente (junto al pago del IVA).  Conoce el listado de tarjetas de crédito en convenio y bancos autorizados ingresando al siguiente [link](http://www.sii.cl/ayudas/ayudas_por_servicios/2055-pagocontrib-2056.html).  Para mayor información sobre el **pago por caja** ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/arbol_imptos_f29_1038.htm).</t>
-  </si>
-  <si>
-    <t>Si necesitas pagar el IVA en cuotas, tienes la opción de Pago en Línea con Tarjeta de Crédito.  Para revisar cuáles son las Tarjetas de Crédito en convenio, ingresa al siguiente [link](http://www.sii.cl/pagina/iva/pagocontrib.htm#tarjeta%20de%20cr%C3%A9dito).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para solicitar la devolución de un impuesto pagado en exceso, debes realizar una Rectificatoria del Formulario 29, en el Depto. de Operación IVA de la Unidad correspondiente al domicilio, presentando los antecedentes necesarios para rectificar. Para revisar la normativa asociada a este procedimiento ingresa al siguiente [link](http://www.sii.cl/documentos/circulares/2004/circu48.htm).
-</t>
-  </si>
-  <si>
     <t>Un servicio prestado en Chile a un cliente extranjero está afecto al pago del IVA, ya que corresponde a un servicio prestado o utilizado en el territorio nacional, independiente de que la remuneración respectiva se pague o perciba en Chile o en el extranjero. *Se entenderá que el servicio es prestado en el territorio nacional cuando la actividad que genera el servicio es desarrollada en Chile, independientemente del lugar donde éste se utilice.</t>
-  </si>
-  <si>
-    <t>El beneficio de postergación del pago de IVA está orientado a apoyar a las micro, pequeñas y medianas Empresas. Si cumples con los requisitos, podrás postergar la fecha de pago de IVA en hasta dos meses después de la fecha de pago correspondiente. Para acceder al beneficio, debes realizar la declaración de IVA por internet en los plazos legales, seleccionando en dicho formulario, el casillero Postergación Pago del IVA" (código [756]).  Para conocer los requisitos ingresa al siguiente [link](http://www.sii.cl/destacados/reforma_tributaria/postergacioniva.html).</t>
-  </si>
-  <si>
-    <t>Para corregir una declaración de IVA, debes hacerlo mediante una rectificatoria. No olvides que la opción para rectificar se encontrará disponible después de 48 horas desde que se realizó la declaración.  Recuerda que hay recitificaciones que NO se pueden realizar por internet, las que encontrarás en el siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_4066.htm).</t>
   </si>
   <si>
     <t xml:space="preserve">Para declarar un Formulario 29 sin movimiento ingresa a Servicios Online / Impuestos Mensuales / Declaración Mensual (F29) / Declarar IVA (F29), selecciona el periodo que vas a declarar y pincha el botón "Enviar Declaración". Recuerda que las declaraciones sin movimiento son aquellas que presentan todos los códigos de impuestos en cero o vacío, excepto los códigos de identificación o de remanente.  No olvides que: - Los contribuyentes de Primera Categoría deben declarar obligatoriamente el Formulario 29 por todos los períodos tributarios, inclusive en aquellos en que no se tenga movimiento. - Los contribuyentes de 2° Categoría **no** deben presentar declaraciones de IVA sin movimiento.
 </t>
   </si>
   <si>
-    <t>La opción de postergación de pago solamente aplica al impuesto de IVA. En otras palabras, la postergación de pago no aplica: - Al impuesto pagado en las importaciones. - A ningún otro impuesto cuya declaración se efectúe mediante el F29.  Considerando lo anterior, los PPM no se pueden postergar. Estos deben declararse y pagarse en el periodo correspondiente.  Para mayor información revisa el siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_6634.htm).</t>
-  </si>
-  <si>
-    <t>Tu Propuesta F29 se construye principalmente a partir de la información de tu **Registro de Compras y Ventas (RCV)**, por lo que si tienes diferencias, debes revisar si complementaste de forma correcta tu registro, recordando que existe información que debes ingresar de forma manual, como son los impuestos adicionales y aquellos documentos no electrónicos. Si no estás de acuerdo con la Propuesta F29, puedes declarar a partir de un formulario en blanco.  Para conocer los códigos que no se consideran en la propuesta F29 y que deben ser ingresados manualmente, ingresa [aquí](http://www.sii.cl/preguntas_frecuentes/iva/001_030_7014.htm).</t>
-  </si>
-  <si>
     <t>Los intentos de declaración corresponden a todos aquellos momentos en donde no se logró concretar el pago. Recuerda que, sólo cuando se concrete el pago, la declaración se habrá ejecutado y tendrá validez.</t>
   </si>
   <si>
-    <t>Para consultar o pagar giros de postergación de IVA, ingresa al siguiente [link](http://www.sii.cl/servicios_online/1042-3266.html). Tambien puedes acceder siguiendo la RUTa: Servicios online / Impuestos mensuales / Consulta y seguimiento  (F29 y F50) / Consultar y pagar giros / Consultar y pagar giros postergación IVA.  Si no encuentras la opción para pagar el giro de postergación, puede ser que no estés en la RUTa correcta. Intenta acceder a través del link o por la RUTa indicada anteriormente.</t>
-  </si>
-  <si>
-    <t>Si el sistema te informa a través de una ventana emergente que existen periodos sin declarar, es necesario que revises la Consulta de Estado de las declaraciones, para poder verificar dicha información. Accede directamente a la Consulta de Estado ingresando al siguiente [link](http://www.sii.cl/servicios_online/1042-3266.html). También puedes hacerlo siguiendo la RUTa: Servicios Online, Impuestos Mensuales, opción "Consulta y seguimiento (F29 y F50)".</t>
-  </si>
-  <si>
     <t>Los Pagos Provisionales Mensuales (PPM) obligatorios son los pagos que deben efectuar los contribuyentes como una provisión contra los impuestos anuales que se determinan a fines del año en que se producen las rentas, y que corresponde pagar hasta el 30 de abril del año siguiente.  Los PPM voluntarios, se definen como las sumas que los contribuyentes pueden abonar a cuenta de sus impuestos anuales, sin que exista una obligación determinada para hacerlo.</t>
-  </si>
-  <si>
-    <t>La Consulta Integral F29 permite conocer el estado actual de las declaraciones mensuales y pagos simultáneos de impuestos (F29) presentados, ver si existen observaciones (inconsistencias de información), a qué se deben éstas y cómo resolverlas. Ingresa a través del siguiente [link](https://www4.sii.cl/sifmConsultaInternet/index.html?dest=cifxx&amp;form=29) o siguiendo la RUTa: "Servicios Online/ Impuestos Mensuales/ Consulta y seguimiento (F29 y F50) / Consulta Integral F29".</t>
-  </si>
-  <si>
-    <t>Para consultar la declaración de un F29 de otro contribuyente (previo consentimiento), debes tener el folio y el valor de 5 códigos de la misma. Accede a esta consulta en el siguiente [link](http://www.sii.cl/servicios_online/1042-3266.html). O bien, a través de la RUTa: **Servicios Online, Impuestos Mensuales, Consulta y seguimiento (F29 y F50), Verificar declaración por terceros.</t>
   </si>
   <si>
     <t>Existe un convenio con la Tesorería General de la República para el pago de un IVA fuera de plazo. Para esto, debes ir a la Unidad correspondiente al domicilio y presentar: - RUT de la empresa, Cédula de Identidad del representante legal (persona jurídica), Cédula de Identidad (persona natural) y poder notarial, de ser necesario. - Libro de compra y venta, en caso de períodos anteriores a agosto de 2017. - Copia del F29 en papel de los meses atrasados.  Con estos antecedentes, el SII emitirá los giros pendientes reajustados. Posteriormente, deberás acudir a la Tesorería General de la República a realizar el convenio.</t>
@@ -637,36 +482,12 @@
     <t>La propuesta de Formulario 29 corresponde al Formulario 29 que el SII dispone para los contribuyentes a través de Internet, con los valores de los códigos que mensualmente deben declarar, ya sea dentro o fuera de plazo. Estos códigos se determinan esencialmente a través de la información disponible en el nuevo Registro de Compras y Ventas.  El contribuyente podrá revisar los valores determinados en su Formulario 29 y, si está de acuerdo, declarar. En caso de requerir incorporar información de códigos que no son propuestos por el SII, el contribuyente los podrá ingresar para luego declarar.</t>
   </si>
   <si>
-    <t>La rectificatoria de un F29 presentado dentro de plazo legal, y si ésta sólo implica la disminución del monto del remanente de Crédito Fiscal IVA, no correspondería la aplicación de multas. Sí se podrían aplicar reajustes, intereses y multas por la declaración y pago fuera de plazo de diferencias o impuestos no declarados (por ejemplo, un mayor PPM).  Para mayor información ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_1726.htm).</t>
-  </si>
-  <si>
-    <t>Si debes rectificar el F29 y sólo tienes la opción de hacerlo de forma presencial, considera lo siguiente: - Acudir a la oficina del SII correspondiente a tu domicilio, con tu identificación. - Presentar los documentos que la respalden: F29 (primitiva), propuesta de F29 (rectificatoria), facturas de ventas y proveedores, notas de créditos y débitos recibidas o emitidas, libro de compras y ventas (si corresponde).  Para revisar las rectificaciones que no se pueden realizar por Internet, ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_4066.htm).  Para mayor información ingresa al siguiente [link](http://www.sii.cl/documentos/circulares/2004/circu48.htm).</t>
-  </si>
-  <si>
-    <t>Los PPM Obligatorios deben ser declarados en el F29, línea 63. Ingresa al F29 a través del siguiente [link](https://www4.sii.cl/propuestaf29ui/index.html#/default) o usando la RUTa: Servicios Online / Impuestos Mensuales y luego "Declaración Mensual (F29)".</t>
-  </si>
-  <si>
-    <t>Los PPM Voluntarios deben ser declarados en el F50, línea 59. Ingresa al F50 a través del siguiente [link:](https://www4.sii.cl/rfiInternet/declarar/index.html#rfiSelFormularioPeriodo) o usando la RUTa: Servicios Online / Impuestos Mensuales y luego "Declaración Mensual (F50)".</t>
-  </si>
-  <si>
     <t>Si una declaración F29 (original o rectificatoria) queda pendiente de anulación, debes esperar a que la modificatoria que acabas de realizar (como "reemplazo" de la anterior) complete el proceso interno de validación, lo cual puede demorar hasta 48 horas. Cuando ésta sea aceptada, la anterior quedará anulada.</t>
   </si>
   <si>
-    <t>Algunas de las letras que aparecen en la Consulta Integral F29 son: O: No Observada - Declaración con cruce aplicado SIN observaciones. S: Observada Secundaria - Declaración con cruce aplicado CON observaciones, fue liberada automáticamente por capacidad de atención en la Unidad. I: Impugnada - Declaración con cruce aplicado CON observaciones. J: Justificada - Declaración con cruce aplicado CON observaciones, las cuales fueron justificadas en la Unidad.  Si buscas una letra distinta, por favor comunícate con la [Mesa de Ayuda](http://www.sii.cl/ayudas/asistencia/3042-mesa_ayuda-3044.html).</t>
-  </si>
-  <si>
     <t>Los documentos tributarios (por ej. Nota de Crédito) recibidos se deben registrar cronológicamente o cuando se reciban. Ahora bien, dependiendo del período, corresponderá el uso del crédito fiscal de los mismos.  Si los documentos son registrados después de 3 meses, no procede la recuperación del crédito y sólo podrán imputarse como gasto.</t>
   </si>
   <si>
-    <t>De acuerdo a la Legislación Tributaria vigente, los contribuyentes de Primera Categoría están obligados a presentar Declaración mensual a partir de la solicitud de Inicio de Actividades, aún cuando no tengan movimiento.  Para mayor información revisa el [Decreto Ley 825](http://www.sii.cl/normativa_legislacion/dl825.pdf). También puedes acceder a través de la ruta: Normativa y Legislación / Legislación Tributaria Básica / Ley sobre Impuestos a las Ventas y Servicios / Artículo 64 y 65.</t>
-  </si>
-  <si>
-    <t>Al pagar un IVA mediante PEC (Pago en Cuenta Corriente con mandato al banco), el banco recibirá el pago hasta 24 horas antes de la fecha de vencimiento, es decir, hasta el día 11 los que vencen el 12 y 19 para los vencimientos del día 20 (cuando estos caen en día hábil).  En el caso de haber utilizado la opción "Páguese al vencimiento", el cargo en la Cuenta Corriente se efectuará el último día de plazo para declarar el IVA.  Para mayor información revisa el [Calendario Tributario](https://misii.sii.cl/cgi_calendario/calendario.cgi).</t>
-  </si>
-  <si>
-    <t>El plazo para declarar hasta el día 20 es sólo para las Declaraciones con Pago por Internet, es decir, NO aplica para Pago por Caja con cupón de pago.  Para mayor información,ingresa al siguiente [link](http://www.sii.cl/preguntas_frecuentes/iva/001_030_4485.htm).</t>
-  </si>
-  <si>
     <t>Para declarar el F29, el contribuyente debe autenticarse con RUT y clave de la empresa, de lo contrario la declaración quedará asociada al RUT de quien esté asociado al certificado digital. Si esto ocurre, deberás concurrir a la oficina del SII correspondiente al domicilio comercial y solicitar la rectificación del RUT en el F29.  Por lo tanto, si estás autenticado con certificado digital y necesitas declarar el F29, deberás cerrar cesión y autenticarte correctamente (con RUT y Clave de la Empresa).</t>
   </si>
   <si>
@@ -676,10 +497,141 @@
     <t>E-IVA es una nueva aplicación móvil que permite de forma segura, fácil y gratuita validar y enviar tu Propuesta de declaración de F29. Para utilizarla debes instalar la aplicación en tu dispositivo móvil, la cual puedes descargar de forma gratuita, y además contar con RUT y clave del SII.</t>
   </si>
   <si>
-    <t>Recuerda que si tienes el beneficio de postergación del pago de IVA, podrás usarlo en cada período que se declare el IVA, es decir, en cada uno de los meses del año.  Para mayor información ingresa al siguiente [link](http://www.sii.cl/portales/reforma_tributaria/postergacioniva.html).</t>
-  </si>
-  <si>
     <t>Si tienes un término de giro en trámite, NO debes seguir declarando el F29 (ya que el TG tiene fecha "hasta"). Si bien continuarán registrándose las anotaciones por no declarante, éstas se levantarán al momento de terminar el trámite.</t>
+  </si>
+  <si>
+    <t>Existe algun convenio para pagar el IVA fuera de plazo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuál es el significado de las letras que aparecen en la consulta integral del iva?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El plazo para declarar hasta el día 20 es sólo para las Declaraciones con Pago por Internet, es decir, NO aplica para Pago por Caja con cupón de pago.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al pagar un IVA mediante PEC (Pago en Cuenta Corriente con mandato al banco), el banco recibirá el pago hasta 24 horas antes de la fecha de vencimiento, es decir, hasta el día 11 los que vencen el 12 y 19 para los vencimientos del día 20 (cuando estos caen en día hábil).  En el caso de haber utilizado la opción "Páguese al vencimiento", el cargo en la Cuenta Corriente se efectuará el último día de plazo para declarar el IVA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acuerdo a la Legislación Tributaria vigente, los contribuyentes de Primera Categoría están obligados a presentar Declaración mensual a partir de la solicitud de Inicio de Actividades, aún cuando no tengan movimiento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algunas de las letras que aparecen en la Consulta Integral F29 son: O: No Observada - Declaración con cruce aplicado SIN observaciones. S: Observada Secundaria - Declaración con cruce aplicado CON observaciones, fue liberada automáticamente por capacidad de atención en la Unidad. I: Impugnada - Declaración con cruce aplicado CON observaciones. J: Justificada - Declaración con cruce aplicado CON observaciones, las cuales fueron justificadas en la Unidad.  </t>
+  </si>
+  <si>
+    <t>Para contáctarnos a través de nuestra página web http://www.sii.cl</t>
+  </si>
+  <si>
+    <t>Puedes revisar preguntas frecuentes en  http://www.sii.cl</t>
+  </si>
+  <si>
+    <t>Recuerda que si tienes el beneficio de postergación del pago de IVA, podrás usarlo en cada período que se declare el IVA, es decir, en cada uno de los meses del año.</t>
+  </si>
+  <si>
+    <t>Si necesitas rectificar un F29 por internet, pero el sistema no te lo permite, considera que:- La opción para rectificar (por internet) se encontrará disponible después de 48 horas desde que se realizó la declaración.- Si intentaste rectificar pero no se logró concretar el pago, el sistema se bloqueará por 48 horas, por lo cual será necesario esperar dicho plazo para intentar nuevamente.- Existen rectificaciones del F29 que sólo se pueden realizar en la oficina del SII correspondiente al domicilio del contribuyente.</t>
+  </si>
+  <si>
+    <t>Los PPM Voluntarios deben ser declarados en el F50, línea 59. Ingresa al F50 a través de http://www.sii.cl</t>
+  </si>
+  <si>
+    <t>Los PPM Obligatorios deben ser declarados en el F29, línea 63. Ingresa al F29 a través de  http://www.sii.cl</t>
+  </si>
+  <si>
+    <t>Si debes rectificar el F29 y sólo tienes la opción de hacerlo de forma presencial, considera lo siguiente: - Acudir a la oficina del SII correspondiente a tu domicilio, con tu identificación. - Presentar los documentos que la respalden: F29 (primitiva), propuesta de F29 (rectificatoria), facturas de ventas y proveedores, notas de créditos y débitos recibidas o emitidas, libro de compras y ventas (si corresponde).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La rectificatoria de un F29 presentado dentro de plazo legal, y si ésta sólo implica la disminución del monto del remanente de Crédito Fiscal IVA, no correspondería la aplicación de multas. Sí se podrían aplicar reajustes, intereses y multas por la declaración y pago fuera de plazo de diferencias o impuestos no declarados (por ejemplo, un mayor PPM). </t>
+  </si>
+  <si>
+    <t>La tasa de PPM es calculada en base a lo que establece el Art. 84 de la Ley de la Renta y a las instrucciones impartidas por el SII en sus Circulares N° 52 del 2014 y N° 16 de 1991. Sin embargo, puedes no utilizar el asistente e ingresar la tasa de PPM que consideres correcto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La actualización del remanente del Crédito Fiscal IVA del mes anterior es automática (desde la aplicación del sitio web del SII, F29). Esta considera el remanente del mes anterior y lo actualiza por la UTM del mes de la declaracion de IVA. Para el remanente del mes, considera la UTM del mes de la declaración. </t>
+  </si>
+  <si>
+    <t>Para conocer las instituciones recaudadoras autorizadas para pagar en caja (con Cupón de Pago impreso) ingresa al http://www.sii.cl</t>
+  </si>
+  <si>
+    <t>Para consultar la declaración de un F29 de otro contribuyente (previo consentimiento), debes tener el folio y el valor de 5 códigos de la misma..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Consulta Integral F29 permite conocer el estado actual de las declaraciones mensuales y pagos simultáneos de impuestos (F29) presentados, ver si existen observaciones (inconsistencias de información), a qué se deben éstas y cómo resolverlas. </t>
+  </si>
+  <si>
+    <t>El Cupón de Pago es el documento que se genera cuando se elige la opción de Pago por Caja, luego de ingresar y validar los datos de su F29 o 50 en Internet. Este documento debe ser pagado en alguna de las [instituciones recaudadoras autorizadas] para que sus datos se conviertan en declaración, hasta la fecha de vencimiento y por el monto exacto que aparece en el cupón.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando el vencimiento del impuesto cae en día festivo, sábado o domingo, el vencimiento se aplaza al día hábil siguiente. </t>
+  </si>
+  <si>
+    <t>Si el sistema te informa a través de una ventana emergente que existen periodos sin declarar, es necesario que revises la Consulta de Estado de las declaraciones, para poder verificar dicha información. También puedes hacerlo siguiendo la RUTa: Servicios Online, Impuestos Mensuales, opción "Consulta y seguimiento (F29 y F50)".</t>
+  </si>
+  <si>
+    <t>Para consultar o pagar giros de postergación de IVA, ingresa al http:// ww.sii.cl . Tambien puedes acceder siguiendo la RUTa: Servicios online / Impuestos mensuales / Consulta y seguimiento  (F29 y F50) / Consultar y pagar giros / Consultar y pagar giros postergación IVA.  Si no encuentras la opción para pagar el giro de postergación, puede ser que no estés en la RUTa correcta. Intenta acceder a través del link o por la RUTa indicada anteriormente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tu Propuesta F29 se construye principalmente a partir de la información de tu **Registro de Compras y Ventas (RCV)**, por lo que si tienes diferencias, debes revisar si complementaste de forma correcta tu registro, recordando que existe información que debes ingresar de forma manual, como son los impuestos adicionales y aquellos documentos no electrónicos. Si no estás de acuerdo con la Propuesta F29, puedes declarar a partir de un formulario en blanco.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El giro de postergación del IVA vence 2 meses después a la fecha de vencimiento original. Esto quiere decir que podrás pagar el giro de postergación desde el momento en que se realiza la declaración de IVA dentro del plazo habitual hasta 2 meses después. </t>
+  </si>
+  <si>
+    <t>La opción de postergación de pago solamente aplica al impuesto de IVA. En otras palabras, la postergación de pago no aplica: - Al impuesto pagado en las importaciones. - A ningún otro impuesto cuya declaración se efectúe mediante el F29.  Considerando lo anterior, los PPM no se pueden postergar. Estos deben declararse y pagarse en el periodo correspondiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para corregir una declaración de IVA, debes hacerlo mediante una rectificatoria. No olvides que la opción para rectificar se encontrará disponible después de 48 horas desde que se realizó la declaración.  </t>
+  </si>
+  <si>
+    <t>El beneficio de postergación del pago de IVA está orientado a apoyar a las micro, pequeñas y medianas Empresas. Si cumples con los requisitos, podrás postergar la fecha de pago de IVA en hasta dos meses después de la fecha de pago correspondiente. Para acceder al beneficio, debes realizar la declaración de IVA por internet en los plazos legales, seleccionando en dicho formulario, el casillero Postergación Pago del IVA" (código [756]).</t>
+  </si>
+  <si>
+    <t>Para solicitar la condonación de multas e intereses asociados a impuestos mensuales declarados en el F29, los contribuyentes, representantes o mandatarios, debidamente acreditados, deben presentar el [Formulario 2667]</t>
+  </si>
+  <si>
+    <t>Para solicitar la clave de acceso a tu cuenta Mi SII con tu RUT confirmando la Cláusula de responsabilidad por el uso de la clave secreta.</t>
+  </si>
+  <si>
+    <t>Para modificar la clave y los datos de autentificación de tu cuenta **Mi SII** con tu RUT y clave y confirma la **Cláusula de responsabilidad por el uso de la clave secreta**.</t>
+  </si>
+  <si>
+    <t>Para solicitar la devolución de un impuesto pagado en exceso, debes realizar una Rectificatoria del Formulario 29, en el Depto. de Operación IVA de la Unidad correspondiente al domicilio, presentando los antecedentes necesarios para rectificar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si necesitas pagar el IVA en cuotas, tienes la opción de Pago en Línea con Tarjeta de Crédito. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los medios de pago habilitados para el pago de IVA son: - PEL: pago en línea con cargo a Tarjeta de Crédito emitidas en Chile o con cargo a Cuenta Corriente (o cuenta vista o chequera electrónica). - PEC: pago con Cuenta Corriente mediante mandato al banco. - Pago por Caja en [instituciones recaudadoras autorizadas](http://www.sii.cl/preguntas_frecuentes/iva/001_030_6236.htm) (requiere llevar cupón de pago impreso).  Recuerda que si tienes multas asociadas, las podrás pagar simultaneamente (junto al pago del IVA).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El plazo para presentar el F29 es hasta el día 12 del mes siguiente, salvo en los siguiente casos: - Si eres facturador electrónico (o emites boletas de honorarios electrónicas), declaradas y pagadas por internet: hasta el día 20. - Si no tienes movimientos (sin pago) y declaras por internet: hasta el día 28.  Si presentas el F29 fuera de plazo se generarán multas, reajuste e intereses. Para que esto no ocurra, revisa el Calendario Tributario ingresando al siguiente [link](https://misii.sii.cl/cgi_calendario/calendario.cgi). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las declaraciones del Formulario 29 que son presentadas **fuera de plazo** generan **multas, reajustes e intereses** (incluso si no tiene movimientos o es "sin pago"). </t>
+  </si>
+  <si>
+    <t>Para presentar el Formulario 29 de Declaración Mensual por Internet, puedes hacerlo a través del Formulario Electrónico, o bien, mediante el envío del archivo con software (upload). Esta última opción, aplica para contribuyentes que poseen software de mercado que genera archivos con las declaraciones del Formulario 29, los cuales pueden ser subidos electrónicamente al sitio web del SII.  Para realizar tu declaración, ingresa [aquí](http://www.sii.cl/servicios_online/1042-.html), o bien, siguiendo la RUTa: Servicios Online/Impuestos Mensuales/Declaración mensual (F29).</t>
+  </si>
+  <si>
+    <t>Para obtener un certificado o una copia de la declaración de un Formulario 29 ingresa al siguiente [link](http://www.sii.cl/servicios_online/1042-3266.html).  También puedes obtenerlo a través de la RUTa: Servicios Online --&gt; Impuestos Mensuales, opción "Consulta y seguimiento (F29 y F50)**".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La actualización del remanente del Crédito Fiscal IVA del mes anterior es automática (desde la aplicación del sitio web del SII, F29). Esta considera el remanente del mes anterior y lo actualiza por la UTM del mes de la declaracion de IVA. Para el remanente del mes, considera la UTM del mes de la declaración. Si la propuesta del F29 no arrastra el remanente del mes anterior, el contribuyente deberá informarlo a través de un formulario en pantalla.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Consulta Estado permite conocer el estado de tu declaración de IVA (F29). Aquí puedes ver las declaraciones vigentes, los intentos de declaración, los cupones de pago, el detalle de los formularios presentados, entre otros. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisa la información correspondiente a la compra y venta de activo fijo.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Servicio de Impuestos Interno (SII) es la institución estatal que se responsabiliza de administrar el sistema tributario interno, junto con facilitar y fiscalizar el cumplimiento de los contribuyentes.  </t>
+  </si>
+  <si>
+    <t>El SII móvil es una oficina móvil completamente equipada y con conectividad a Internet, que tiene como fin asistir a los contribuyentes que viven en zonas alejadas de los centros urbanos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La dirección nacional del SII se encuentra ubicada en Teatinos 120, Santiago. </t>
   </si>
 </sst>
 </file>
@@ -1220,13 +1172,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A113"/>
+      <selection pane="bottomRight" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1241,28 +1193,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -1270,23 +1222,23 @@
     </row>
     <row r="5" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
@@ -1294,854 +1246,802 @@
     </row>
     <row r="8" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B11" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B13" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B15" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B17" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B18" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B19" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B20" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B21" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>168</v>
+      <c r="B22" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>171</v>
+      <c r="B27" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="B30" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="B31" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B32" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>112</v>
+      <c r="B33" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>113</v>
+        <v>47</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>176</v>
+        <v>40</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
-        <v>133</v>
-      </c>
       <c r="B62" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>187</v>
+        <v>120</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>187</v>
+        <v>121</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A67" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A77" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="15" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
+      <c r="B81" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A80" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="12" t="s">
+      <c r="B83" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" s="15" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>123</v>
+      <c r="B85" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="12" t="s">
+    </row>
+    <row r="98" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B96" s="10" t="s">
+      <c r="B98" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="B99" s="4" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B106" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A61:B61">
+      <sortCondition descending="1" ref="A1:A106"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
